--- a/election_votar_data/SATKANIA/AMILAIS/152407/152407_com_363_male_without_photo_22_2025-11-24.xlsx
+++ b/election_votar_data/SATKANIA/AMILAIS/152407/152407_com_363_male_without_photo_22_2025-11-24.xlsx
@@ -500,69 +500,45 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>১১৯</t>
+          <t>৩৭৬</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>অরবিন্দু দাশ</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>১৫২৪০৭৯৭০৬৩৬</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>মেঘনাথ দাশ</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>ফেনদা বালা</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>জেলে</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>০৭/০৮/১৯৫৫</t>
-        </is>
-      </c>
-      <c r="H2" s="5" t="inlineStr">
-        <is>
-          <t>অনুবিন্দু দাশের বাড়ি, আমিলাইল, সাতকানিয়া, চট্টগ্রাম</t>
-        </is>
-      </c>
+          <t>মিনহাজ উদ্দীন</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr"/>
+      <c r="D2" s="4" t="inlineStr"/>
+      <c r="E2" s="4" t="inlineStr"/>
+      <c r="F2" s="3" t="inlineStr"/>
+      <c r="G2" s="3" t="inlineStr"/>
+      <c r="H2" s="5" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>২৭৫</t>
+          <t>১১৯</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>শিবু দাশ</t>
+          <t>অরবিন্দু দাশ</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০১০৪</t>
+          <t>১৫২৪০৭৯৭০৬৩৬</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>অবিনাস দাশ</t>
+          <t>মেঘনাথ দাশ</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>সূর্য মনি দাশ</t>
+          <t>ফেনদা বালা</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
@@ -572,34 +548,34 @@
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>২২/০৫/১৯৯৫</t>
+          <t>০৭/০৮/১৯৫৫</t>
         </is>
       </c>
       <c r="H3" s="5" t="inlineStr">
         <is>
-          <t>অবিনাস দাশের বাড়ি, পং আমিলাইশ, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>অনুবিন্দু দাশের বাড়ি, আমিলাইল, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>১১৮</t>
+          <t>২৭৫</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>রতন দাশ</t>
+          <t>শিবু দাশ</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭০৬৩৫</t>
+          <t>১৫২৪০৭০০০১০৪</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>অবিলাশ দাশ</t>
+          <t>অবিনাস দাশ</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -614,39 +590,39 @@
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>১১/০৭/১৯৮৫</t>
+          <t>২২/০৫/১৯৯৫</t>
         </is>
       </c>
       <c r="H4" s="5" t="inlineStr">
         <is>
-          <t>অবিলাশ দাশের বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>অবিনাস দাশের বাড়ি, পং আমিলাইশ, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>০৯৮</t>
+          <t>১১৮</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>সুভাষ দাশ</t>
+          <t>রতন দাশ</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭০৫৩৪</t>
+          <t>১৫২৪০৭৯৭০৬৩৫</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>অরবিন্দু দাশ</t>
+          <t>অবিলাশ দাশ</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>কল্যাণী দাশ</t>
+          <t>সূর্য মনি দাশ</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
@@ -656,239 +632,239 @@
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>১৯/০৭/১৯৮৮</t>
+          <t>১১/০৭/১৯৮৫</t>
         </is>
       </c>
       <c r="H5" s="5" t="inlineStr">
         <is>
-          <t>অরবিন্দু দাশের বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>অবিলাশ দাশের বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>১২৪</t>
+          <t>০৯৮</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>অরুণ দাশ</t>
+          <t>সুভাষ দাশ</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭০৬৪২</t>
+          <t>১৫২৪০৭৯৭০৫৩৪</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>পরশু রাম দাশ</t>
+          <t>অরবিন্দু দাশ</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>বিনয় বালা দাশ</t>
+          <t>কল্যাণী দাশ</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>জেলে</t>
         </is>
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t>৩০/০৬/১৯৬৫</t>
+          <t>১৯/০৭/১৯৮৮</t>
         </is>
       </c>
       <c r="H6" s="5" t="inlineStr">
         <is>
-          <t>অরুণ দাশের বাড়ী, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>অরবিন্দু দাশের বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>০৪৯</t>
+          <t>১২৪</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>আবদু হোবহন</t>
+          <t>অরুণ দাশ</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭০২৩০</t>
+          <t>১৫২৪০৭৯৭০৬৪২</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>কালু মিয়া</t>
+          <t>পরশু রাম দাশ</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>মোমেনা খাতুন</t>
+          <t>বিনয় বালা দাশ</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>১১/০৮/১৯৬৯</t>
+          <t>৩০/০৬/১৯৬৫</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
-          <t>আবদু হোবহানের খলিবার বাড়ী, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>অরুণ দাশের বাড়ী, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>২০৮</t>
+          <t>০৪৯</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>শবির আহমদ</t>
+          <t>আবদু হোবহন</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০০০৫</t>
+          <t>১৫২৪০৭৯৭০২৩০</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t>আবু তাহের</t>
+          <t>কালু মিয়া</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>নুর আয়শা বেগম</t>
+          <t>মোমেনা খাতুন</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t>০৭/০৩/১৯৮৮</t>
+          <t>১১/০৮/১৯৬৯</t>
         </is>
       </c>
       <c r="H8" s="5" t="inlineStr">
         <is>
-          <t>আবদুল ওদুদ খলিফার বাড়ি, পঃ আমিলাইশ, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>আবদু হোবহানের খলিবার বাড়ী, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>১৬০</t>
+          <t>২০৮</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>মোঃ আবদুল ওয়াজেদ</t>
+          <t>শবির আহমদ</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭৭৩৬৬</t>
+          <t>১৫২৪০৭০০০০০৫</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>আবদুল খালেক</t>
+          <t>আবু তাহের</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>আমেনা খাতুন</t>
+          <t>নুর আয়শা বেগম</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>২৯/০৯/১৯৮৭</t>
+          <t>০৭/০৩/১৯৮৮</t>
         </is>
       </c>
       <c r="H9" s="5" t="inlineStr">
         <is>
-          <t>আবদুল খালেকের বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>আবদুল ওদুদ খলিফার বাড়ি, পঃ আমিলাইশ, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>১৬৫</t>
+          <t>১৬০</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>মোঃ আবদুল মন্নান</t>
+          <t>মোঃ আবদুল ওয়াজেদ</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭৭৩৭৯</t>
+          <t>১৫২৪০৭৯৭৭৩৬৬</t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t>সেনায়ত আলী</t>
+          <t>আবদুল খালেক</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>মোস্তফা খাতুন</t>
+          <t>আমেনা খাতুন</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">
         <is>
-          <t>০৪/০৭/১৯৮৮</t>
+          <t>২৯/০৯/১৯৮৭</t>
         </is>
       </c>
       <c r="H10" s="5" t="inlineStr">
         <is>
-          <t>আবদুল মাজুদের বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>আবদুল খালেকের বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>১৬৩</t>
+          <t>১৬৫</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>আবদুল মাবুদ</t>
+          <t>মোঃ আবদুল মন্নান</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭৭৩৭৫</t>
+          <t>১৫২৪০৭৯৭৭৩৭৯</t>
         </is>
       </c>
       <c r="D11" s="4" t="inlineStr">
@@ -903,34 +879,34 @@
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>০২/১১/১৯৭৪</t>
+          <t>০৪/০৭/১৯৮৮</t>
         </is>
       </c>
       <c r="H11" s="5" t="inlineStr">
         <is>
-          <t>আবদুল মাবুদের বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>আবদুল মাজুদের বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>১৬৪</t>
+          <t>১৬৩</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>আবদুর মজিদ</t>
+          <t>আবদুল মাবুদ</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭৭৩৭৭</t>
+          <t>১৫২৪০৭৯৭৭৩৭৫</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
@@ -945,12 +921,12 @@
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G12" s="3" t="inlineStr">
         <is>
-          <t>২৮/১০/১৯৭৮</t>
+          <t>০২/১১/১৯৭৪</t>
         </is>
       </c>
       <c r="H12" s="5" t="inlineStr">
@@ -962,237 +938,237 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>২১০</t>
+          <t>১৬৪</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>মোঃ আবদুল আলিম</t>
+          <t>আবদুর মজিদ</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০০০৭</t>
+          <t>১৫২৪০৭৯৭৭৩৭৭</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>সেনায়েত আলী</t>
+          <t>সেনায়ত আলী</t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>মোস্তাফা খাতুন</t>
+          <t>মোস্তফা খাতুন</t>
         </is>
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>দিনমজুর</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>০৭/০৬/১৯৮১</t>
+          <t>২৮/১০/১৯৭৮</t>
         </is>
       </c>
       <c r="H13" s="5" t="inlineStr">
         <is>
-          <t>আবদুল মাবুদের বাড়ি, পঃ আমিলাইশ, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>আবদুল মাবুদের বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>২৬৬</t>
+          <t>২১০</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আবদুল গফফার</t>
+          <t>মোঃ আবদুল আলিম</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০০৯১</t>
+          <t>১৫২৪০৭০০০০০৭</t>
         </is>
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
-          <t>মোঃ সেনায়েত আলী</t>
+          <t>সেনায়েত আলী</t>
         </is>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>মোস্তফা খাতুন</t>
+          <t>মোস্তাফা খাতুন</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>দিনমজুর</t>
         </is>
       </c>
       <c r="G14" s="3" t="inlineStr">
         <is>
-          <t>১৫/০৮/১৯৯০</t>
+          <t>০৭/০৬/১৯৮১</t>
         </is>
       </c>
       <c r="H14" s="5" t="inlineStr">
         <is>
-          <t>১৩০, আবদুল মাব্দুদের বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>আবদুল মাবুদের বাড়ি, পঃ আমিলাইশ, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>৩৭০</t>
+          <t>২৬৬</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>আবছার উদ্দীন তানবীর</t>
+          <t>মোহাম্মদ আবদুল গফফার</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০২৭২</t>
+          <t>১৫২৪০৭০০০০৯১</t>
         </is>
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>আবদুল মাব্দ</t>
+          <t>মোঃ সেনায়েত আলী</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>মমতাজ বেগম</t>
+          <t>মোস্তফা খাতুন</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>২২/১১/২০০৫</t>
+          <t>১৫/০৮/১৯৯০</t>
         </is>
       </c>
       <c r="H15" s="5" t="inlineStr">
         <is>
-          <t>১৪৭, আবদুল মাব্দের বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>১৩০, আবদুল মাব্দুদের বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>০৪৭</t>
+          <t>৩৭০</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>আবদুল মোমেন</t>
+          <t>আবছার উদ্দীন তানবীর</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭০২২৮</t>
+          <t>১৫২৪০৭০০০২৭২</t>
         </is>
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>আবদুল করিম</t>
+          <t>আবদুল মাব্দ</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>হাবিয়া</t>
+          <t>মমতাজ বেগম</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t>১১/০৭/১৯৮৮</t>
+          <t>২২/১১/২০০৫</t>
         </is>
       </c>
       <c r="H16" s="5" t="inlineStr">
         <is>
-          <t>আবদুল মোমেন খলিপার বাড়ী, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>১৪৭, আবদুল মাব্দের বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>১৫৪</t>
+          <t>০৪৭</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল হাফেজ</t>
+          <t>আবদুল মোমেন</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭৭৩৫০</t>
+          <t>১৫২৪০৭৯৭০২২৮</t>
         </is>
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল খালেক</t>
+          <t>আবদুল করিম</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>আমেনা খাতুন</t>
+          <t>হাবিয়া</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G17" s="3" t="inlineStr">
         <is>
-          <t>১১/০৬/১৯৮১</t>
+          <t>১১/০৭/১৯৮৮</t>
         </is>
       </c>
       <c r="H17" s="5" t="inlineStr">
         <is>
-          <t>আব্দুল খালেকের বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>আবদুল মোমেন খলিপার বাড়ী, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>২১৫</t>
+          <t>১৫৪</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>মোঃ ফরিদ</t>
+          <t>আব্দুল হাফেজ</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০০১২</t>
+          <t>১৫২৪০৭৯৭৭৩৫০</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>আহমেদ কবির</t>
+          <t>আব্দুল খালেক</t>
         </is>
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>খতিজা বেগম</t>
+          <t>আমেনা খাতুন</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
@@ -1202,91 +1178,91 @@
       </c>
       <c r="G18" s="3" t="inlineStr">
         <is>
-          <t>০৭/০৬/১৯৭৮</t>
+          <t>১১/০৬/১৯৮১</t>
         </is>
       </c>
       <c r="H18" s="5" t="inlineStr">
         <is>
-          <t>আমিনার বাপের বাড়ী, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>আব্দুল খালেকের বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>২৯৫</t>
+          <t>২১৫</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>মোঃ বেরহান উদ্দীন</t>
+          <t>মোঃ ফরিদ</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০১৩৭</t>
+          <t>১৫২৪০৭০০০০১২</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>নুরুল আলম</t>
+          <t>আহমেদ কবির</t>
         </is>
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>মাসুকা বেগম</t>
+          <t>খতিজা বেগম</t>
         </is>
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G19" s="3" t="inlineStr">
         <is>
-          <t>১৩/০৯/১৯৯৮</t>
+          <t>০৭/০৬/১৯৭৮</t>
         </is>
       </c>
       <c r="H19" s="5" t="inlineStr">
         <is>
-          <t>আমিলাইশ, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>আমিনার বাপের বাড়ী, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>০৫৪</t>
+          <t>২৯৫</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>আবদুল আউয়াল</t>
+          <t>মোঃ বেরহান উদ্দীন</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭০২৪৭</t>
+          <t>১৫২৪০৭০০০১৩৭</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>আবদুল করিম</t>
+          <t>নুরুল আলম</t>
         </is>
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>সুফিয়া বেগম</t>
+          <t>মাসুকা বেগম</t>
         </is>
       </c>
       <c r="F20" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G20" s="3" t="inlineStr">
         <is>
-          <t>১৪/০৭/১৯৫৯</t>
+          <t>১৩/০৯/১৯৯৮</t>
         </is>
       </c>
       <c r="H20" s="5" t="inlineStr">
@@ -1298,363 +1274,363 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>২৮৫</t>
+          <t>০৫৪</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>জাহেদ হোসেন</t>
+          <t>আবদুল আউয়াল</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০১২০</t>
+          <t>১৫২৪০৭৯৭০২৪৭</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ হোসেন</t>
+          <t>আবদুল করিম</t>
         </is>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>মনোয়ারা বেগম</t>
+          <t>সুফিয়া বেগম</t>
         </is>
       </c>
       <c r="F21" s="3" t="inlineStr">
         <is>
-          <t>প্রবাসী</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G21" s="3" t="inlineStr">
         <is>
-          <t>১৫/১১/১৯৮৭</t>
+          <t>১৪/০৭/১৯৫৯</t>
         </is>
       </c>
       <c r="H21" s="5" t="inlineStr">
         <is>
-          <t>আমিলাইশ, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>আমিলাইশ, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>২৮০</t>
+          <t>২৮৫</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ সাইফুল ইসলাম</t>
+          <t>জাহেদ হোসেন</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০১১০</t>
+          <t>১৫২৪০৭০০০১২০</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>আবদুল আওয়াল</t>
+          <t>মোহাম্মদ হোসেন</t>
         </is>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>সুফিয়া বেগম</t>
+          <t>মনোয়ারা বেগম</t>
         </is>
       </c>
       <c r="F22" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>প্রবাসী</t>
         </is>
       </c>
       <c r="G22" s="3" t="inlineStr">
         <is>
-          <t>০৫/০১/১৯৯৬</t>
+          <t>১৫/১১/১৯৮৭</t>
         </is>
       </c>
       <c r="H22" s="5" t="inlineStr">
         <is>
-          <t>আমিলাইশ, পশ্চিম আমিলাইশ, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>আমিলাইশ, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>৩২৩</t>
+          <t>২৮০</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>জামাল উদ্দীন</t>
+          <t>মোহাম্মদ সাইফুল ইসলাম</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০১৮২</t>
+          <t>১৫২৪০৭০০০১১০</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ইউছুপ</t>
+          <t>আবদুল আওয়াল</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>নাহিমা আকতার</t>
+          <t>সুফিয়া বেগম</t>
         </is>
       </c>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G23" s="3" t="inlineStr">
         <is>
-          <t>২৫/০২/২০০৩</t>
+          <t>০৫/০১/১৯৯৬</t>
         </is>
       </c>
       <c r="H23" s="5" t="inlineStr">
         <is>
-          <t>০০৬১, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>আমিলাইশ, পশ্চিম আমিলাইশ, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>৩২৫</t>
+          <t>৩২২</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>সমীরন দাশ</t>
+          <t>এহেসানুল করিম</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০১৮৫</t>
+          <t>১৫২৪০৭০০০১৮১</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>কুশারাম দাশ</t>
+          <t>মোঃ হোসেন</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>শোভা রানী দাশ</t>
+          <t>হাজেরা বেগম</t>
         </is>
       </c>
       <c r="F24" s="3" t="inlineStr">
         <is>
-          <t>জেলে</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G24" s="3" t="inlineStr">
         <is>
-          <t>১৫/১০/১৯৯৭</t>
+          <t>০৪/১২/২০০২</t>
         </is>
       </c>
       <c r="H24" s="5" t="inlineStr">
         <is>
-          <t>০০০৫, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>২৫৯, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>২৬৪</t>
+          <t>২৯৮</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>মিকু দাশ</t>
+          <t>শিবক্ষর দাশ</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০০৮৬</t>
+          <t>১৫২৪০৭০০০১৩৯</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>ব্রজেন্দ্র দাশ</t>
+          <t>রতন দাশ</t>
         </is>
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>ধনশ্রী দাশ</t>
+          <t>রত্না দাশ</t>
         </is>
       </c>
       <c r="F25" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G25" s="3" t="inlineStr">
         <is>
-          <t>১৫/০৮/১৯৯৫</t>
+          <t>১৪/০৭/১৯৯৮</t>
         </is>
       </c>
       <c r="H25" s="5" t="inlineStr">
         <is>
-          <t>০৫, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>১১০, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>৩৩১</t>
+          <t>২৬৪</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আবদুর রহিম</t>
+          <t>মিকু দাশ</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০১৯৫</t>
+          <t>১৫২৪০৭০০০০৮৬</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>সেনায়েত আলী</t>
+          <t>ব্রজেন্দ্র দাশ</t>
         </is>
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>মোছা মোস্তবা খাতুন</t>
+          <t>ধনশ্রী দাশ</t>
         </is>
       </c>
       <c r="F26" s="3" t="inlineStr">
         <is>
-          <t>সরকারী চাকুরী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G26" s="3" t="inlineStr">
         <is>
-          <t>২৫/০৮/১৯৮১</t>
+          <t>১৫/০৮/১৯৯৫</t>
         </is>
       </c>
       <c r="H26" s="5" t="inlineStr">
         <is>
-          <t>০৪৭, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>০৫, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>৩৩২</t>
+          <t>৩৫৮</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>নুরুল আলম</t>
+          <t>সুজন শর্মা</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০১৯৮</t>
+          <t>১৫২৪০৭০০০২৫০</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>মৃত আকবর আলী</t>
+          <t>অজিত শর্মা</t>
         </is>
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>মৃত ছফরা খাতুন</t>
+          <t>লাক্ষ্মী শর্মা</t>
         </is>
       </c>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G27" s="3" t="inlineStr">
         <is>
-          <t>০৩/০৫/১৯৬৮</t>
+          <t>১৫/০৪/২০০৫</t>
         </is>
       </c>
       <c r="H27" s="5" t="inlineStr">
         <is>
-          <t>০০৭৯, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>২২, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>৩৩৩</t>
+          <t>৩৩২</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আজাদ হোসেন</t>
+          <t>নুরুল আলম</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০০২৪</t>
+          <t>১৫২৪০৭০০০১৯৮</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>আহম্মদ হোছাইন</t>
+          <t>মৃত আকবর আলী</t>
         </is>
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>হালিমা খাতুন</t>
+          <t>মৃত ছফরা খাতুন</t>
         </is>
       </c>
       <c r="F28" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G28" s="3" t="inlineStr">
         <is>
-          <t>০৬/১১/২০০৬</t>
+          <t>০৩/০৫/১৯৬৮</t>
         </is>
       </c>
       <c r="H28" s="5" t="inlineStr">
         <is>
-          <t>৫৮, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>০০৭৯, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>৩৪৭</t>
+          <t>৩৩৪</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>আশিগ দাস</t>
+          <t>ওয়াহেদুল ইসলাম</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০২৩১</t>
+          <t>১৫২৪০৭০০০২০২</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>অবিনাস দাশ</t>
+          <t>আবুল কাশেম</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>সূর্য মনি দাশ</t>
+          <t>মোমেনা খাতুন</t>
         </is>
       </c>
       <c r="F29" s="3" t="inlineStr">
@@ -1664,54 +1640,54 @@
       </c>
       <c r="G29" s="3" t="inlineStr">
         <is>
-          <t>১৯/১২/২০০৪</t>
+          <t>২৫/০৮/২০০২</t>
         </is>
       </c>
       <c r="H29" s="5" t="inlineStr">
         <is>
-          <t>৪৮, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>০৭১, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>৩৩৪</t>
+          <t>৩২৫</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>ওয়াহেদুল ইসলাম</t>
+          <t>সমীরন দাশ</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০২০২</t>
+          <t>১৫২৪০৭০০০১৮৫</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>আবুল কাশেম</t>
+          <t>কুশারাম দাশ</t>
         </is>
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>মোমেনা খাতুন</t>
+          <t>শোভা রানী দাশ</t>
         </is>
       </c>
       <c r="F30" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>জেলে</t>
         </is>
       </c>
       <c r="G30" s="3" t="inlineStr">
         <is>
-          <t>২৫/০৮/২০০২</t>
+          <t>১৫/১০/১৯৯৭</t>
         </is>
       </c>
       <c r="H30" s="5" t="inlineStr">
         <is>
-          <t>০৭১, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>০০০৫, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -1760,27 +1736,27 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>৩২২</t>
+          <t>৩৩৩</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>এহেসানুল করিম</t>
+          <t>মোহাম্মদ আজাদ হোসেন</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০১৮১</t>
+          <t>১৫২৪০৭০০০০২৪</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>মোঃ হোসেন</t>
+          <t>আহম্মদ হোছাইন</t>
         </is>
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>হাজেরা বেগম</t>
+          <t>হালিমা খাতুন</t>
         </is>
       </c>
       <c r="F32" s="3" t="inlineStr">
@@ -1790,39 +1766,39 @@
       </c>
       <c r="G32" s="3" t="inlineStr">
         <is>
-          <t>০৪/১২/২০০২</t>
+          <t>০৬/১১/২০০৬</t>
         </is>
       </c>
       <c r="H32" s="5" t="inlineStr">
         <is>
-          <t>২৫৯, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>৫৮, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>৩৫০</t>
+          <t>৩২৩</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>মোস্তাফিজুর রহমান</t>
+          <t>জামাল উদ্দীন</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০২৩৫</t>
+          <t>১৫২৪০৭০০০১৮২</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ মুহা</t>
+          <t>মোহাম্মদ ইউছুপ</t>
         </is>
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>আরেশা বেগম</t>
+          <t>নাহিমা আকতার</t>
         </is>
       </c>
       <c r="F33" s="3" t="inlineStr">
@@ -1832,239 +1808,239 @@
       </c>
       <c r="G33" s="3" t="inlineStr">
         <is>
-          <t>২০/০৭/২০০৪</t>
+          <t>২৫/০২/২০০৩</t>
         </is>
       </c>
       <c r="H33" s="5" t="inlineStr">
         <is>
-          <t>০৯৪, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>০০৬১, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>৩৫৮</t>
+          <t>৩৩৬</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>সুজন শর্মা</t>
+          <t>সুকান্ত দাশ</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০২৫০</t>
+          <t>১৫২৪০৭০০০২০৬</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>অজিত শর্মা</t>
+          <t>অরুণ দাশ</t>
         </is>
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>লাক্ষ্মী শর্মা</t>
+          <t>শিশী রানী দাশ</t>
         </is>
       </c>
       <c r="F34" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G34" s="3" t="inlineStr">
         <is>
-          <t>১৫/০৪/২০০৫</t>
+          <t>২৭/০৮/২০০২</t>
         </is>
       </c>
       <c r="H34" s="5" t="inlineStr">
         <is>
-          <t>২২, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>২৯, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>৩৭৩</t>
+          <t>৩৩১</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>মোঃ আশরাফুল ইসলাম</t>
+          <t>মোহাম্মদ আবদুর রহিম</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০২৭৯</t>
+          <t>১৫২৪০৭০০০১৯৫</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>কামাল উদ্দীন</t>
+          <t>সেনায়েত আলী</t>
         </is>
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>খালেদা বেগম</t>
+          <t>মোছা মোস্তবা খাতুন</t>
         </is>
       </c>
       <c r="F35" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>সরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G35" s="3" t="inlineStr">
         <is>
-          <t>১১/০৫/২০০৭</t>
+          <t>২৫/০৮/১৯৮১</t>
         </is>
       </c>
       <c r="H35" s="5" t="inlineStr">
         <is>
-          <t>১১৮, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>০৪৭, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>২৯৮</t>
+          <t>৩০৮</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>শিবক্ষর দাশ</t>
+          <t>তাহসিন বিন বাবু</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০১৩৯</t>
+          <t>১৫২৪০৭০০০১৬৪</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>রতন দাশ</t>
+          <t>গোলাম মোহাম্মদ</t>
         </is>
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>রত্না দাশ</t>
+          <t>রুজিনা আকতার</t>
         </is>
       </c>
       <c r="F36" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G36" s="3" t="inlineStr">
         <is>
-          <t>১৪/০৭/১৯৯৮</t>
+          <t>১৫/০৯/২০০৩</t>
         </is>
       </c>
       <c r="H36" s="5" t="inlineStr">
         <is>
-          <t>১১০, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>০০৬২, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>৩৬৯</t>
+          <t>০৮৮</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>রিপয় দাশ</t>
+          <t>ভগীরত দাশ</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০২৭১</t>
+          <t>১৫২৪০৭৯৭০৫১৮</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>সিন্দু রঞ্জন দাশ</t>
+          <t>বিনদবিহারী দাশ</t>
         </is>
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>সুমিত্রা দাশ</t>
+          <t>অনিতা দাশ</t>
         </is>
       </c>
       <c r="F37" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>জেলে</t>
         </is>
       </c>
       <c r="G37" s="3" t="inlineStr">
         <is>
-          <t>১১/০৯/২০০৬</t>
+          <t>০৭/০৯/১৯৬৪</t>
         </is>
       </c>
       <c r="H37" s="5" t="inlineStr">
         <is>
-          <t>০৬, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>৩০৮</t>
+          <t>৩৭৫</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>তাহসিন বিন বাবু</t>
+          <t>অমিত দাশ</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০১৬৪</t>
+          <t>১৫২৪০৭০০০২৮২</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>গোলাম মোহাম্মদ</t>
+          <t>সিন্দু রঞ্জন দাশ</t>
         </is>
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>রুজিনা আকতার</t>
+          <t>সুমিত্রা দাশ</t>
         </is>
       </c>
       <c r="F38" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G38" s="3" t="inlineStr">
         <is>
-          <t>১৫/০৯/২০০৩</t>
+          <t>১৮/০৯/২০০৭</t>
         </is>
       </c>
       <c r="H38" s="5" t="inlineStr">
         <is>
-          <t>০০৬২, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>০০৬, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>৩৭৫</t>
+          <t>৩৬৯</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>অমিত দাশ</t>
+          <t>রিপয় দাশ</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০২৮২</t>
+          <t>১৫২৪০৭০০০২৭১</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
@@ -2079,86 +2055,86 @@
       </c>
       <c r="F39" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G39" s="3" t="inlineStr">
         <is>
-          <t>১৮/০৯/২০০৭</t>
+          <t>১১/০৯/২০০৬</t>
         </is>
       </c>
       <c r="H39" s="5" t="inlineStr">
         <is>
-          <t>০০৬, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>০৬, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>০৮৮</t>
+          <t>৩৭৩</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>ভগীরত দাশ</t>
+          <t>মোঃ আশরাফুল ইসলাম</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭০৫১৮</t>
+          <t>১৫২৪০৭০০০২৭৯</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>বিনদবিহারী দাশ</t>
+          <t>কামাল উদ্দীন</t>
         </is>
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>অনিতা দাশ</t>
+          <t>খালেদা বেগম</t>
         </is>
       </c>
       <c r="F40" s="3" t="inlineStr">
         <is>
-          <t>জেলে</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G40" s="3" t="inlineStr">
         <is>
-          <t>০৭/০৯/১৯৬৪</t>
+          <t>১১/০৫/২০০৭</t>
         </is>
       </c>
       <c r="H40" s="5" t="inlineStr">
         <is>
-          <t>আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>১১৮, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>৩৩৬</t>
+          <t>৩৪৭</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>সুকান্ত দাশ</t>
+          <t>আশিগ দাস</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০২০৬</t>
+          <t>১৫২৪০৭০০০২৩১</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>অরুণ দাশ</t>
+          <t>অবিনাস দাশ</t>
         </is>
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>শিশী রানী দাশ</t>
+          <t>সূর্য মনি দাশ</t>
         </is>
       </c>
       <c r="F41" s="3" t="inlineStr">
@@ -2168,12 +2144,12 @@
       </c>
       <c r="G41" s="3" t="inlineStr">
         <is>
-          <t>২৭/০৮/২০০২</t>
+          <t>১৯/১২/২০০৪</t>
         </is>
       </c>
       <c r="H41" s="5" t="inlineStr">
         <is>
-          <t>২৯, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>৪৮, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -2222,27 +2198,27 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>৩০৯</t>
+          <t>৩৫০</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>বোহান উদ্দীন</t>
+          <t>মোস্তাফিজুর রহমান</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০১৬৬</t>
+          <t>১৫২৪০৭০০০২৩৫</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>মৃত মোঃ ইউনুহ</t>
+          <t>মোহাম্মদ মুহা</t>
         </is>
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>জেসমিন আকতার</t>
+          <t>আরেশা বেগম</t>
         </is>
       </c>
       <c r="F43" s="3" t="inlineStr">
@@ -2252,54 +2228,54 @@
       </c>
       <c r="G43" s="3" t="inlineStr">
         <is>
-          <t>২৭/০২/২০০৩</t>
+          <t>২০/০৭/২০০৪</t>
         </is>
       </c>
       <c r="H43" s="5" t="inlineStr">
         <is>
-          <t>০০৯৬, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>০৯৪, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>৩১৩</t>
+          <t>৩১৫</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ইলিয়াহ মিয়া</t>
+          <t>বিজয় দাশ</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০১৭০</t>
+          <t>১৫২৪০৭০০০১৭২</t>
         </is>
       </c>
       <c r="D44" s="4" t="inlineStr">
         <is>
-          <t>মৃত আবদুল করিম</t>
+          <t>অরুণ সেন দাশ</t>
         </is>
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>মৃত শামসুল্লাহর</t>
+          <t>শিখা রানী দাশ</t>
         </is>
       </c>
       <c r="F44" s="3" t="inlineStr">
         <is>
-          <t>প্রবাসী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G44" s="3" t="inlineStr">
         <is>
-          <t>১৫/০৩/১৯৭৯</t>
+          <t>১৩/০২/২০০৩</t>
         </is>
       </c>
       <c r="H44" s="5" t="inlineStr">
         <is>
-          <t>০১৬৫, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>০৯৮, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -2348,42 +2324,42 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>৩১৫</t>
+          <t>৩১৩</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>বিজয় দাশ</t>
+          <t>মোহাম্মদ ইলিয়াহ মিয়া</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০১৭২</t>
+          <t>১৫২৪০৭০০০১৭০</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
-          <t>অরুণ সেন দাশ</t>
+          <t>মৃত আবদুল করিম</t>
         </is>
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>শিখা রানী দাশ</t>
+          <t>মৃত শামসুল্লাহর</t>
         </is>
       </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>প্রবাসী</t>
         </is>
       </c>
       <c r="G46" s="3" t="inlineStr">
         <is>
-          <t>১৩/০২/২০০৩</t>
+          <t>১৫/০৩/১৯৭৯</t>
         </is>
       </c>
       <c r="H46" s="5" t="inlineStr">
         <is>
-          <t>০৯৮, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>০১৬৫, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -2432,311 +2408,311 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>৩১১</t>
+          <t>৩২১</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>মোঃ সিরাজুল ইসলাম</t>
+          <t>আবিদুল ইসলাম</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০১৬৮</t>
+          <t>১৫২৪০৭০০০১৮০</t>
         </is>
       </c>
       <c r="D48" s="4" t="inlineStr">
         <is>
-          <t>মৃত মোঃ ইছাক</t>
+          <t>মোঃ ইসমাইল</t>
         </is>
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>নুর বাহার</t>
+          <t>জুলেখা বেগম</t>
         </is>
       </c>
       <c r="F48" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G48" s="3" t="inlineStr">
         <is>
-          <t>১৭/০৫/১৯৯১</t>
+          <t>১৬/১২/২০০০</t>
         </is>
       </c>
       <c r="H48" s="5" t="inlineStr">
         <is>
-          <t>০১৪৫, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>০১২০, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>৩২১</t>
+          <t>৩০৯</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>আবিদুল ইসলাম</t>
+          <t>বোহান উদ্দীন</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০১৮০</t>
+          <t>১৫২৪০৭০০০১৬৬</t>
         </is>
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>মোঃ ইসমাইল</t>
+          <t>মৃত মোঃ ইউনুহ</t>
         </is>
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>জুলেখা বেগম</t>
+          <t>জেসমিন আকতার</t>
         </is>
       </c>
       <c r="F49" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G49" s="3" t="inlineStr">
         <is>
-          <t>১৬/১২/২০০০</t>
+          <t>২৭/০২/২০০৩</t>
         </is>
       </c>
       <c r="H49" s="5" t="inlineStr">
         <is>
-          <t>০১২০, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>০০৯৬, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>০০২</t>
+          <t>৩১১</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>মোঃ আবু বকৰ ছিদ্দিক</t>
+          <t>মোঃ সিরাজুল ইসলাম</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭২০৭৯৭৩</t>
+          <t>১৫২৪০৭০০০১৬৮</t>
         </is>
       </c>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t>নুৰ মোহাম্মদ নুৰুল্লাহ</t>
+          <t>মৃত মোঃ ইছাক</t>
         </is>
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>মাজেদা খাতুন</t>
+          <t>নুর বাহার</t>
         </is>
       </c>
       <c r="F50" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G50" s="3" t="inlineStr">
         <is>
-          <t>০৫/১০/১৯৭০</t>
+          <t>১৭/০৫/১৯৯১</t>
         </is>
       </c>
       <c r="H50" s="5" t="inlineStr">
         <is>
-          <t>ইউসুফ মাঝাৰ বাড়ী, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>০১৪৫, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>১০৬</t>
+          <t>০০২</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>বল্লাল দাশ</t>
+          <t>মোঃ আবু বকৰ ছিদ্দিক</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭০৫৪৮</t>
+          <t>১৫২৪০৭২০৭৯৭৩</t>
         </is>
       </c>
       <c r="D51" s="4" t="inlineStr">
         <is>
-          <t>উত্তম সেন দাশ</t>
+          <t>নুৰ মোহাম্মদ নুৰুল্লাহ</t>
         </is>
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>চম্পা রানী দাশ</t>
+          <t>মাজেদা খাতুন</t>
         </is>
       </c>
       <c r="F51" s="3" t="inlineStr">
         <is>
-          <t>জেলে</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G51" s="3" t="inlineStr">
         <is>
-          <t>১৫/০৩/১৯৮৪</t>
+          <t>০৫/১০/১৯৭০</t>
         </is>
       </c>
       <c r="H51" s="5" t="inlineStr">
         <is>
-          <t>উত্তম সেন দাশের বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>ইউসুফ মাঝাৰ বাড়ী, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>১৭৭</t>
+          <t>১০৬</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>মোঃ মামুন রশিদ</t>
+          <t>বল্লাল দাশ</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭৭৩৯৮</t>
+          <t>১৫২৪০৭৯৭০৫৪৮</t>
         </is>
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল মোমেন</t>
+          <t>উত্তম সেন দাশ</t>
         </is>
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>ফাতেমা বেগম</t>
+          <t>চম্পা রানী দাশ</t>
         </is>
       </c>
       <c r="F52" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>জেলে</t>
         </is>
       </c>
       <c r="G52" s="3" t="inlineStr">
         <is>
-          <t>১০/০৩/১৯৮৫</t>
+          <t>১৫/০৩/১৯৮৪</t>
         </is>
       </c>
       <c r="H52" s="5" t="inlineStr">
         <is>
-          <t>ওয়াদুদ খলিফার বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>উত্তম সেন দাশের বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>২৯৪</t>
+          <t>১৭৭</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ ফারুক</t>
+          <t>মোঃ মামুন রশিদ</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০১৩৫</t>
+          <t>১৫২৪০৭৯৭৭৩৯৮</t>
         </is>
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t>আবু তাহের</t>
+          <t>আব্দুল মোমেন</t>
         </is>
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>নূর আয়েশা</t>
+          <t>ফাতেমা বেগম</t>
         </is>
       </c>
       <c r="F53" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G53" s="3" t="inlineStr">
         <is>
-          <t>১৬/০৫/১৯৯৮</t>
+          <t>১০/০৩/১৯৮৫</t>
         </is>
       </c>
       <c r="H53" s="5" t="inlineStr">
         <is>
-          <t>ওয়াদুদ খলিফার বাড়ি, পশ্চিম আমিলাইশ, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>ওয়াদুদ খলিফার বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>১৬১</t>
+          <t>২৯৪</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>মোঃ আবুল কাশেম</t>
+          <t>মুহাম্মদ ফারুক</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭৭৩৬৯</t>
+          <t>১৫২৪০৭০০০১৩৫</t>
         </is>
       </c>
       <c r="D54" s="4" t="inlineStr">
         <is>
-          <t>সোলতান আহমেদ</t>
+          <t>আবু তাহের</t>
         </is>
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>নুর জাহান</t>
+          <t>নূর আয়েশা</t>
         </is>
       </c>
       <c r="F54" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G54" s="3" t="inlineStr">
         <is>
-          <t>২০/১০/১৯৬৬</t>
+          <t>১৬/০৫/১৯৯৮</t>
         </is>
       </c>
       <c r="H54" s="5" t="inlineStr">
         <is>
-          <t>কদের মাবির বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>ওয়াদুদ খলিফার বাড়ি, পশ্চিম আমিলাইশ, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>১৪৮</t>
+          <t>১৬১</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>আহমেদ হোছাইন</t>
+          <t>মোঃ আবুল কাশেম</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭৭৩০৮</t>
+          <t>১৫২৪০৭৯৭৭৩৬৯</t>
         </is>
       </c>
       <c r="D55" s="4" t="inlineStr">
@@ -2746,7 +2722,7 @@
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>আমেনা বেগম</t>
+          <t>নুর জাহান</t>
         </is>
       </c>
       <c r="F55" s="3" t="inlineStr">
@@ -2756,12 +2732,12 @@
       </c>
       <c r="G55" s="3" t="inlineStr">
         <is>
-          <t>২৪/০২/১৯৫৫</t>
+          <t>২০/১০/১৯৬৬</t>
         </is>
       </c>
       <c r="H55" s="5" t="inlineStr">
         <is>
-          <t>কাদের মাঝির বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>কদের মাবির বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -2810,37 +2786,37 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>১৫১</t>
+          <t>১৪৮</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t>আবুল বশর</t>
+          <t>আহমেদ হোছাইন</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭৭৩৪৩</t>
+          <t>১৫২৪০৭৯৭৭৩০৮</t>
         </is>
       </c>
       <c r="D57" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ হোসেন</t>
+          <t>সোলতান আহমেদ</t>
         </is>
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>রশিদা খাতুন</t>
+          <t>আমেনা বেগম</t>
         </is>
       </c>
       <c r="F57" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G57" s="3" t="inlineStr">
         <is>
-          <t>১০/০৮/১৯৬৬</t>
+          <t>২৪/০২/১৯৫৫</t>
         </is>
       </c>
       <c r="H57" s="5" t="inlineStr">
@@ -2852,37 +2828,37 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>১৫২</t>
+          <t>১৪৭</t>
         </is>
       </c>
       <c r="B58" s="4" t="inlineStr">
         <is>
-          <t>আবুল কালাম</t>
+          <t>আবদুল কাদের</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭৭৩৪৪</t>
+          <t>১৫২৪০৭৯৭৭৩৩৫</t>
         </is>
       </c>
       <c r="D58" s="4" t="inlineStr">
         <is>
-          <t>মোহাং হোসেন</t>
+          <t>ইউচুপ আলী</t>
         </is>
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>রশিদা বেগম</t>
+          <t>হালিমা খাতুন</t>
         </is>
       </c>
       <c r="F58" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G58" s="3" t="inlineStr">
         <is>
-          <t>১০/০৮/১৯৭৫</t>
+          <t>২২/০২/১৯৫৭</t>
         </is>
       </c>
       <c r="H58" s="5" t="inlineStr">
@@ -2894,37 +2870,37 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>১৫৫</t>
+          <t>১৫৩</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>মোঃ হোসেন</t>
+          <t>আবু বকর</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭৭৩৫৪</t>
+          <t>১৫২৪০৭৯৭৭৩৪৭</t>
         </is>
       </c>
       <c r="D59" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল কাদের</t>
+          <t>সোলতান আহমেদ</t>
         </is>
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>মরিয়ম খাতুন</t>
+          <t>নুর জাহান</t>
         </is>
       </c>
       <c r="F59" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G59" s="3" t="inlineStr">
         <is>
-          <t>১১/০৬/১৯৮১</t>
+          <t>২৬/০৫/১৯৫২</t>
         </is>
       </c>
       <c r="H59" s="5" t="inlineStr">
@@ -2936,37 +2912,37 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>১৪৭</t>
+          <t>১৫৫</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
         <is>
-          <t>আবদুল কাদের</t>
+          <t>মোঃ হোসেন</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭৭৩৩৫</t>
+          <t>১৫২৪০৭৯৭৭৩৫৪</t>
         </is>
       </c>
       <c r="D60" s="4" t="inlineStr">
         <is>
-          <t>ইউচুপ আলী</t>
+          <t>আব্দুল কাদের</t>
         </is>
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>হালিমা খাতুন</t>
+          <t>মরিয়ম খাতুন</t>
         </is>
       </c>
       <c r="F60" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G60" s="3" t="inlineStr">
         <is>
-          <t>২২/০২/১৯৫৭</t>
+          <t>১১/০৬/১৯৮১</t>
         </is>
       </c>
       <c r="H60" s="5" t="inlineStr">
@@ -2978,37 +2954,37 @@
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>১৫৩</t>
+          <t>১৫২</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>আবু বকর</t>
+          <t>আবুল কালাম</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭৭৩৪৭</t>
+          <t>১৫২৪০৭৯৭৭৩৪৪</t>
         </is>
       </c>
       <c r="D61" s="4" t="inlineStr">
         <is>
-          <t>সোলতান আহমেদ</t>
+          <t>মোহাং হোসেন</t>
         </is>
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>নুর জাহান</t>
+          <t>রশিদা বেগম</t>
         </is>
       </c>
       <c r="F61" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G61" s="3" t="inlineStr">
         <is>
-          <t>২৬/০৫/১৯৫২</t>
+          <t>১০/০৮/১৯৭৫</t>
         </is>
       </c>
       <c r="H61" s="5" t="inlineStr">
@@ -3020,121 +2996,121 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>৩৬৭</t>
+          <t>১৫১</t>
         </is>
       </c>
       <c r="B62" s="4" t="inlineStr">
         <is>
-          <t>মোঃ ইফতেখারুল ইসলাম</t>
+          <t>আবুল বশর</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০২৬৯</t>
+          <t>১৫২৪০৭৯৭৭৩৪৩</t>
         </is>
       </c>
       <c r="D62" s="4" t="inlineStr">
         <is>
-          <t>আবুল বশর</t>
+          <t>মোহাম্মদ হোসেন</t>
         </is>
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>খুরশিদা বেগম</t>
+          <t>রশিদা খাতুন</t>
         </is>
       </c>
       <c r="F62" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G62" s="3" t="inlineStr">
         <is>
-          <t>২৫/০৭/২০০৫</t>
+          <t>১০/০৮/১৯৬৬</t>
         </is>
       </c>
       <c r="H62" s="5" t="inlineStr">
         <is>
-          <t>৫৭, কাদের মাবিব বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>কাদের মাঝির বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>০১০</t>
+          <t>৩৬৭</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t>কান্তি লাল দাশ</t>
+          <t>মোঃ ইফতেখারুল ইসলাম</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭০১১৮</t>
+          <t>১৫২৪০৭০০০২৬৯</t>
         </is>
       </c>
       <c r="D63" s="4" t="inlineStr">
         <is>
-          <t>ধীৰেন্দ্ৰ লাল দাশ</t>
+          <t>আবুল বশর</t>
         </is>
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>আমিনা রানী দাশ</t>
+          <t>খুরশিদা বেগম</t>
         </is>
       </c>
       <c r="F63" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G63" s="3" t="inlineStr">
         <is>
-          <t>১২/০৭/১৯৮৫</t>
+          <t>২৫/০৭/২০০৫</t>
         </is>
       </c>
       <c r="H63" s="5" t="inlineStr">
         <is>
-          <t>কান্তি লাল দাশেৰ বাড়ী, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>৫৭, কাদের মাবিব বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>০১১</t>
+          <t>০১০</t>
         </is>
       </c>
       <c r="B64" s="4" t="inlineStr">
         <is>
-          <t>হৰিবন্ধু দাশ</t>
+          <t>কান্তি লাল দাশ</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭০১২০</t>
+          <t>১৫২৪০৭৯৭০১১৮</t>
         </is>
       </c>
       <c r="D64" s="4" t="inlineStr">
         <is>
-          <t>কান্তি লাল দাশ</t>
+          <t>ধীৰেন্দ্ৰ লাল দাশ</t>
         </is>
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>পঞ্চলতা দাশ</t>
+          <t>আমিনা রানী দাশ</t>
         </is>
       </c>
       <c r="F64" s="3" t="inlineStr">
         <is>
-          <t>জেলে</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G64" s="3" t="inlineStr">
         <is>
-          <t>২০/০২/১৯৮৫</t>
+          <t>১২/০৭/১৯৮৫</t>
         </is>
       </c>
       <c r="H64" s="5" t="inlineStr">
@@ -3146,27 +3122,27 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>১২৬</t>
+          <t>০১১</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>সুজন দাশ</t>
+          <t>হৰিবন্ধু দাশ</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭০৬৪৫</t>
+          <t>১৫২৪০৭৯৭০১২০</t>
         </is>
       </c>
       <c r="D65" s="4" t="inlineStr">
         <is>
-          <t>কালা বাঁশি দাশ</t>
+          <t>কান্তি লাল দাশ</t>
         </is>
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>বিসকা দাশ</t>
+          <t>পঞ্চলতা দাশ</t>
         </is>
       </c>
       <c r="F65" s="3" t="inlineStr">
@@ -3176,39 +3152,39 @@
       </c>
       <c r="G65" s="3" t="inlineStr">
         <is>
-          <t>০৮/০৩/১৯৮৬</t>
+          <t>২০/০২/১৯৮৫</t>
         </is>
       </c>
       <c r="H65" s="5" t="inlineStr">
         <is>
-          <t>কালা বাঁশী দাশের বাড়ী, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>কান্তি লাল দাশেৰ বাড়ী, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>০৯৩</t>
+          <t>১২৬</t>
         </is>
       </c>
       <c r="B66" s="4" t="inlineStr">
         <is>
-          <t>শিবু দাশ</t>
+          <t>সুজন দাশ</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭০৫২৬</t>
+          <t>১৫২৪০৭৯৭০৬৪৫</t>
         </is>
       </c>
       <c r="D66" s="4" t="inlineStr">
         <is>
-          <t>কালু কুমার দাশ</t>
+          <t>কালা বাঁশি দাশ</t>
         </is>
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>শোভা বালা দাশ</t>
+          <t>বিসকা দাশ</t>
         </is>
       </c>
       <c r="F66" s="3" t="inlineStr">
@@ -3218,81 +3194,81 @@
       </c>
       <c r="G66" s="3" t="inlineStr">
         <is>
-          <t>০১/০৫/১৯৮৭</t>
+          <t>০৮/০৩/১৯৮৬</t>
         </is>
       </c>
       <c r="H66" s="5" t="inlineStr">
         <is>
-          <t>কালু কুমার দাশের বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>কালা বাঁশী দাশের বাড়ী, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>০৭৪</t>
+          <t>০৯৩</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>জাহাঙ্গীর আলম</t>
+          <t>শিবু দাশ</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭০২৯৭</t>
+          <t>১৫২৪০৭৯৭০৫২৬</t>
         </is>
       </c>
       <c r="D67" s="4" t="inlineStr">
         <is>
-          <t>আবদুল মালেক</t>
+          <t>কালু কুমার দাশ</t>
         </is>
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>ফরিদা বেগম</t>
+          <t>শোভা বালা দাশ</t>
         </is>
       </c>
       <c r="F67" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>জেলে</t>
         </is>
       </c>
       <c r="G67" s="3" t="inlineStr">
         <is>
-          <t>১৩/১০/১৯৮৮</t>
+          <t>০১/০৫/১৯৮৭</t>
         </is>
       </c>
       <c r="H67" s="5" t="inlineStr">
         <is>
-          <t>কালুর বর বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>কালু কুমার দাশের বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>১৬৬</t>
+          <t>০৭৪</t>
         </is>
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আবদুল মালেক</t>
+          <t>জাহাঙ্গীর আলম</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭৭৩৮০</t>
+          <t>১৫২৪০৭৯৭০২৯৭</t>
         </is>
       </c>
       <c r="D68" s="4" t="inlineStr">
         <is>
-          <t>কালু মিয়া</t>
+          <t>আবদুল মালেক</t>
         </is>
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>মোস্তফা খাতুন</t>
+          <t>ফরিদা বেগম</t>
         </is>
       </c>
       <c r="F68" s="3" t="inlineStr">
@@ -3302,113 +3278,113 @@
       </c>
       <c r="G68" s="3" t="inlineStr">
         <is>
-          <t>১১/০৭/১৯৬৪</t>
+          <t>১৩/১০/১৯৮৮</t>
         </is>
       </c>
       <c r="H68" s="5" t="inlineStr">
         <is>
-          <t>কালুর বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>কালুর বর বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>২৪৩</t>
+          <t>১৬৬</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>দিনেশ দাশ</t>
+          <t>মোহাম্মদ আবদুল মালেক</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০০৬৬</t>
+          <t>১৫২৪০৭৯৭৭৩৮০</t>
         </is>
       </c>
       <c r="D69" s="4" t="inlineStr">
         <is>
-          <t>সোনারাম দাশ</t>
+          <t>কালু মিয়া</t>
         </is>
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>শুভা রানী দাশ</t>
+          <t>মোস্তফা খাতুন</t>
         </is>
       </c>
       <c r="F69" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G69" s="3" t="inlineStr">
         <is>
-          <t>২৯/১২/১৯৯২</t>
+          <t>১১/০৭/১৯৬৪</t>
         </is>
       </c>
       <c r="H69" s="5" t="inlineStr">
         <is>
-          <t>কেতব্য পাড়া, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>কালুর বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>২১৩</t>
+          <t>২৪৩</t>
         </is>
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>হরি দাশ</t>
+          <t>দিনেশ দাশ</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০০১০</t>
+          <t>১৫২৪০৭০০০০৬৬</t>
         </is>
       </c>
       <c r="D70" s="4" t="inlineStr">
         <is>
-          <t>প্রবাস দাশ</t>
+          <t>সোনারাম দাশ</t>
         </is>
       </c>
       <c r="E70" s="4" t="inlineStr">
         <is>
-          <t>নুতি বালা দাশ</t>
+          <t>শুভা রানী দাশ</t>
         </is>
       </c>
       <c r="F70" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G70" s="3" t="inlineStr">
         <is>
-          <t>৩০/১২/১৯৯১</t>
+          <t>২৯/১২/১৯৯২</t>
         </is>
       </c>
       <c r="H70" s="5" t="inlineStr">
         <is>
-          <t>কেতব্য পাড়া, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>কেতব্য পাড়া, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>২১৪</t>
+          <t>২১৩</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>লক্ষ্মী দাশ</t>
+          <t>হরি দাশ</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০০১১</t>
+          <t>১৫২৪০৭০০০০১০</t>
         </is>
       </c>
       <c r="D71" s="4" t="inlineStr">
@@ -3418,7 +3394,7 @@
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>নুস্তি বালা দাশ</t>
+          <t>নুতি বালা দাশ</t>
         </is>
       </c>
       <c r="F71" s="3" t="inlineStr">
@@ -3428,39 +3404,39 @@
       </c>
       <c r="G71" s="3" t="inlineStr">
         <is>
-          <t>০৬/০৩/১৯৯০</t>
+          <t>৩০/১২/১৯৯১</t>
         </is>
       </c>
       <c r="H71" s="5" t="inlineStr">
         <is>
-          <t>কেতব্য পাড়া, পং আমিলাইশ, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>কেতব্য পাড়া, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>২২৪</t>
+          <t>২১৪</t>
         </is>
       </c>
       <c r="B72" s="4" t="inlineStr">
         <is>
-          <t>রুধন দাশ</t>
+          <t>লক্ষ্মী দাশ</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০০৩৪</t>
+          <t>১৫২৪০৭০০০০১১</t>
         </is>
       </c>
       <c r="D72" s="4" t="inlineStr">
         <is>
-          <t>বারেন্দ্র দাশ</t>
+          <t>প্রবাস দাশ</t>
         </is>
       </c>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>অলকা রানী দাশ</t>
+          <t>নুস্তি বালা দাশ</t>
         </is>
       </c>
       <c r="F72" s="3" t="inlineStr">
@@ -3470,29 +3446,29 @@
       </c>
       <c r="G72" s="3" t="inlineStr">
         <is>
-          <t>১৫/০৯/১৯৮১</t>
+          <t>০৬/০৩/১৯৯০</t>
         </is>
       </c>
       <c r="H72" s="5" t="inlineStr">
         <is>
-          <t>কেতব্য পাড়া, পং আমিলাইস, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>কেতব্য পাড়া, পং আমিলাইশ, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>২৩৮</t>
+          <t>২২৪</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t>রুপন দাশ</t>
+          <t>রুধন দাশ</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০০৭৩</t>
+          <t>১৫২৪০৭০০০০৩৪</t>
         </is>
       </c>
       <c r="D73" s="4" t="inlineStr">
@@ -3507,54 +3483,54 @@
       </c>
       <c r="F73" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G73" s="3" t="inlineStr">
         <is>
-          <t>০৮/০৫/১৯৮০</t>
+          <t>১৫/০৯/১৯৮১</t>
         </is>
       </c>
       <c r="H73" s="5" t="inlineStr">
         <is>
-          <t>কেতব্য পাড়া, পশ্চিম আমিলাইশ, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>কেতব্য পাড়া, পং আমিলাইস, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>২৪৪</t>
+          <t>২৩৮</t>
         </is>
       </c>
       <c r="B74" s="4" t="inlineStr">
         <is>
-          <t>পলাশ সেন</t>
+          <t>রুপন দাশ</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০০৬৯</t>
+          <t>১৫২৪০৭০০০০৭৩</t>
         </is>
       </c>
       <c r="D74" s="4" t="inlineStr">
         <is>
-          <t>উত্তম সেন দাশ</t>
+          <t>বারেন্দ্র দাশ</t>
         </is>
       </c>
       <c r="E74" s="4" t="inlineStr">
         <is>
-          <t>চম্পা পতি দাশ</t>
+          <t>অলকা রানী দাশ</t>
         </is>
       </c>
       <c r="F74" s="3" t="inlineStr">
         <is>
-          <t>জেলে</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G74" s="3" t="inlineStr">
         <is>
-          <t>০৩/০৬/১৯৯২</t>
+          <t>০৮/০৫/১৯৮০</t>
         </is>
       </c>
       <c r="H74" s="5" t="inlineStr">
@@ -3566,37 +3542,37 @@
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>২৪৫</t>
+          <t>২১২</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t>বিপুল দাশ</t>
+          <t>লক্ষ্মী কান্ত দাশ</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০০৭৬</t>
+          <t>১৫২৪০৭০০০০০৯</t>
         </is>
       </c>
       <c r="D75" s="4" t="inlineStr">
         <is>
-          <t>প্রিয়লাল দাশ</t>
+          <t>হরিশচন্দ্র দাশ</t>
         </is>
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>রমতী বালা দাশ</t>
+          <t>শান্তিবালা দাশ</t>
         </is>
       </c>
       <c r="F75" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G75" s="3" t="inlineStr">
         <is>
-          <t>২৪/০৮/১৯৯৩</t>
+          <t>০৮/০৭/১৯৮৫</t>
         </is>
       </c>
       <c r="H75" s="5" t="inlineStr">
@@ -3608,37 +3584,37 @@
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>২৩৭</t>
+          <t>২১১</t>
         </is>
       </c>
       <c r="B76" s="4" t="inlineStr">
         <is>
-          <t>ভক্ত দাশ</t>
+          <t>স্বপ্ন দাশ</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০০৭০</t>
+          <t>১৫২৪০৭০০০০০৮</t>
         </is>
       </c>
       <c r="D76" s="4" t="inlineStr">
         <is>
-          <t>ব্রজেন্দ্র দাশ</t>
+          <t>সুনীল দাশ</t>
         </is>
       </c>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>ধনেশ্বরী দাশ</t>
+          <t>সবিতা দাশ</t>
         </is>
       </c>
       <c r="F76" s="3" t="inlineStr">
         <is>
-          <t>জেলে</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G76" s="3" t="inlineStr">
         <is>
-          <t>২২/০৮/১৯৮৯</t>
+          <t>০৮/০৭/১৯৯০</t>
         </is>
       </c>
       <c r="H76" s="5" t="inlineStr">
@@ -3650,37 +3626,37 @@
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>২১২</t>
+          <t>২৩৭</t>
         </is>
       </c>
       <c r="B77" s="4" t="inlineStr">
         <is>
-          <t>লক্ষ্মী কান্ত দাশ</t>
+          <t>ভক্ত দাশ</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০০০৯</t>
+          <t>১৫২৪০৭০০০০৭০</t>
         </is>
       </c>
       <c r="D77" s="4" t="inlineStr">
         <is>
-          <t>হরিশচন্দ্র দাশ</t>
+          <t>ব্রজেন্দ্র দাশ</t>
         </is>
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>শান্তিবালা দাশ</t>
+          <t>ধনেশ্বরী দাশ</t>
         </is>
       </c>
       <c r="F77" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>জেলে</t>
         </is>
       </c>
       <c r="G77" s="3" t="inlineStr">
         <is>
-          <t>০৮/০৭/১৯৮৫</t>
+          <t>২২/০৮/১৯৮৯</t>
         </is>
       </c>
       <c r="H77" s="5" t="inlineStr">
@@ -3692,37 +3668,37 @@
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>২৪৬</t>
+          <t>২৪৪</t>
         </is>
       </c>
       <c r="B78" s="4" t="inlineStr">
         <is>
-          <t>বিধান দাশ</t>
+          <t>পলাশ সেন</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০০৫১</t>
+          <t>১৫২৪০৭০০০০৬৯</t>
         </is>
       </c>
       <c r="D78" s="4" t="inlineStr">
         <is>
-          <t>কালা বাশী দাশ</t>
+          <t>উত্তম সেন দাশ</t>
         </is>
       </c>
       <c r="E78" s="4" t="inlineStr">
         <is>
-          <t>রিদু বালা দাশ</t>
+          <t>চম্পা পতি দাশ</t>
         </is>
       </c>
       <c r="F78" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>জেলে</t>
         </is>
       </c>
       <c r="G78" s="3" t="inlineStr">
         <is>
-          <t>২২/০৫/১৯৯৩</t>
+          <t>০৩/০৬/১৯৯২</t>
         </is>
       </c>
       <c r="H78" s="5" t="inlineStr">
@@ -3734,37 +3710,37 @@
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>২১১</t>
+          <t>২৪৫</t>
         </is>
       </c>
       <c r="B79" s="4" t="inlineStr">
         <is>
-          <t>স্বপ্ন দাশ</t>
+          <t>বিপুল দাশ</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০০০৮</t>
+          <t>১৫২৪০৭০০০০৭৬</t>
         </is>
       </c>
       <c r="D79" s="4" t="inlineStr">
         <is>
-          <t>সুনীল দাশ</t>
+          <t>প্রিয়লাল দাশ</t>
         </is>
       </c>
       <c r="E79" s="4" t="inlineStr">
         <is>
-          <t>সবিতা দাশ</t>
+          <t>রমতী বালা দাশ</t>
         </is>
       </c>
       <c r="F79" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G79" s="3" t="inlineStr">
         <is>
-          <t>০৮/০৭/১৯৯০</t>
+          <t>২৪/০৮/১৯৯৩</t>
         </is>
       </c>
       <c r="H79" s="5" t="inlineStr">
@@ -3776,143 +3752,143 @@
     <row r="80">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>২৫৫</t>
+          <t>২৪৬</t>
         </is>
       </c>
       <c r="B80" s="4" t="inlineStr">
         <is>
-          <t>সুরঞ্জন দাশ</t>
+          <t>বিধান দাশ</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০০৭৭</t>
+          <t>১৫২৪০৭০০০০৫১</t>
         </is>
       </c>
       <c r="D80" s="4" t="inlineStr">
         <is>
-          <t>রাধাবানী দাশ</t>
+          <t>কালা বাশী দাশ</t>
         </is>
       </c>
       <c r="E80" s="4" t="inlineStr">
         <is>
-          <t>রানী বালা দাশ</t>
+          <t>রিদু বালা দাশ</t>
         </is>
       </c>
       <c r="F80" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G80" s="3" t="inlineStr">
         <is>
-          <t>১১/১২/১৯৯৪</t>
+          <t>২২/০৫/১৯৯৩</t>
         </is>
       </c>
       <c r="H80" s="5" t="inlineStr">
         <is>
-          <t>কেবতা পাড়া, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>কেতব্য পাড়া, পশ্চিম আমিলাইশ, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>২২৯</t>
+          <t>২৫৫</t>
         </is>
       </c>
       <c r="B81" s="4" t="inlineStr">
         <is>
-          <t>রুভায় দাশ</t>
+          <t>সুরঞ্জন দাশ</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০০৫৩</t>
+          <t>১৫২৪০৭০০০০৭৭</t>
         </is>
       </c>
       <c r="D81" s="4" t="inlineStr">
         <is>
-          <t>হরিয়াম দাশ</t>
+          <t>রাধাবানী দাশ</t>
         </is>
       </c>
       <c r="E81" s="4" t="inlineStr">
         <is>
-          <t>শান্তি বালা দাশ</t>
+          <t>রানী বালা দাশ</t>
         </is>
       </c>
       <c r="F81" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G81" s="3" t="inlineStr">
         <is>
-          <t>১৫/০৮/১৯৮০</t>
+          <t>১১/১২/১৯৯৪</t>
         </is>
       </c>
       <c r="H81" s="5" t="inlineStr">
         <is>
-          <t>কেবত্য পাড়া, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>কেবতা পাড়া, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>২২৭</t>
+          <t>২২৯</t>
         </is>
       </c>
       <c r="B82" s="4" t="inlineStr">
         <is>
-          <t>রতন দাশ</t>
+          <t>রুভায় দাশ</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০০৪৭</t>
+          <t>১৫২৪০৭০০০০৫৩</t>
         </is>
       </c>
       <c r="D82" s="4" t="inlineStr">
         <is>
-          <t>কালী কুমার দাশ</t>
+          <t>হরিয়াম দাশ</t>
         </is>
       </c>
       <c r="E82" s="4" t="inlineStr">
         <is>
-          <t>জোৎস্না রানী দাশ</t>
+          <t>শান্তি বালা দাশ</t>
         </is>
       </c>
       <c r="F82" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G82" s="3" t="inlineStr">
         <is>
-          <t>০৫/০৬/১৯৮৫</t>
+          <t>১৫/০৮/১৯৮০</t>
         </is>
       </c>
       <c r="H82" s="5" t="inlineStr">
         <is>
-          <t>কেবত্য পাড়া, পশ্চিম আমিলাইশ, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>কেবত্য পাড়া, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>২২৮</t>
+          <t>২২৭</t>
         </is>
       </c>
       <c r="B83" s="4" t="inlineStr">
         <is>
-          <t>বাবুন দাশ</t>
+          <t>রতন দাশ</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০০৫০</t>
+          <t>১৫২৪০৭০০০০৪৭</t>
         </is>
       </c>
       <c r="D83" s="4" t="inlineStr">
@@ -3932,29 +3908,29 @@
       </c>
       <c r="G83" s="3" t="inlineStr">
         <is>
-          <t>০২/০৬/১৯৯১</t>
+          <t>০৫/০৬/১৯৮৫</t>
         </is>
       </c>
       <c r="H83" s="5" t="inlineStr">
         <is>
-          <t>কেবত্য পাড়া, পশ্চিম আমিলাইশ, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>কেবত্য পাড়া, পশ্চিম আমিলাইশ, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>২৩৫</t>
+          <t>২৩৬</t>
         </is>
       </c>
       <c r="B84" s="4" t="inlineStr">
         <is>
-          <t>শিমুল দাশ</t>
+          <t>কমল দাশ</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০০৬৭</t>
+          <t>১৫২৪০৭০০০০৬৮</t>
         </is>
       </c>
       <c r="D84" s="4" t="inlineStr">
@@ -3969,12 +3945,12 @@
       </c>
       <c r="F84" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G84" s="3" t="inlineStr">
         <is>
-          <t>২৪/০৭/১৯৮৮</t>
+          <t>০৮/০৫/১৯৮৪</t>
         </is>
       </c>
       <c r="H84" s="5" t="inlineStr">
@@ -3986,17 +3962,17 @@
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>২৩৬</t>
+          <t>২৩৫</t>
         </is>
       </c>
       <c r="B85" s="4" t="inlineStr">
         <is>
-          <t>কমল দাশ</t>
+          <t>শিমুল দাশ</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০০৬৮</t>
+          <t>১৫২৪০৭০০০০৬৭</t>
         </is>
       </c>
       <c r="D85" s="4" t="inlineStr">
@@ -4011,12 +3987,12 @@
       </c>
       <c r="F85" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G85" s="3" t="inlineStr">
         <is>
-          <t>০৮/০৫/১৯৮৪</t>
+          <t>২৪/০৭/১৯৮৮</t>
         </is>
       </c>
       <c r="H85" s="5" t="inlineStr">
@@ -4028,121 +4004,121 @@
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>২১৯</t>
+          <t>২২৮</t>
         </is>
       </c>
       <c r="B86" s="4" t="inlineStr">
         <is>
-          <t>সুমন দাশ</t>
+          <t>বাবুন দাশ</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০০১৬</t>
+          <t>১৫২৪০৭০০০০৫০</t>
         </is>
       </c>
       <c r="D86" s="4" t="inlineStr">
         <is>
-          <t>অরুণ দাশ</t>
+          <t>কালী কুমার দাশ</t>
         </is>
       </c>
       <c r="E86" s="4" t="inlineStr">
         <is>
-          <t>শিশী দাশ</t>
+          <t>জোৎস্না রানী দাশ</t>
         </is>
       </c>
       <c r="F86" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G86" s="3" t="inlineStr">
         <is>
-          <t>০৮/০১/১৯৯১</t>
+          <t>০২/০৬/১৯৯১</t>
         </is>
       </c>
       <c r="H86" s="5" t="inlineStr">
         <is>
-          <t>কেবত্যপাড়া, দক্ষিণ আমিলাইস, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>কেবত্য পাড়া, পশ্চিম আমিলাইশ, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>২২১</t>
+          <t>২১৯</t>
         </is>
       </c>
       <c r="B87" s="4" t="inlineStr">
         <is>
-          <t>রুভায় দাশ</t>
+          <t>সুমন দাশ</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০০১৯</t>
+          <t>১৫২৪০৭০০০০১৬</t>
         </is>
       </c>
       <c r="D87" s="4" t="inlineStr">
         <is>
-          <t>বাঁশী সোহন দাশ</t>
+          <t>অরুণ দাশ</t>
         </is>
       </c>
       <c r="E87" s="4" t="inlineStr">
         <is>
-          <t>পুকুলী দাশ</t>
+          <t>শিশী দাশ</t>
         </is>
       </c>
       <c r="F87" s="3" t="inlineStr">
         <is>
-          <t>জেলে</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G87" s="3" t="inlineStr">
         <is>
-          <t>০৭/০৮/১৯৭৩</t>
+          <t>০৮/০১/১৯৯১</t>
         </is>
       </c>
       <c r="H87" s="5" t="inlineStr">
         <is>
-          <t>কেবত্যপাড়া, পং আমিলাইশ, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>কেবত্যপাড়া, দক্ষিণ আমিলাইস, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>২১৮</t>
+          <t>২২১</t>
         </is>
       </c>
       <c r="B88" s="4" t="inlineStr">
         <is>
-          <t>মিন্টু দাশ</t>
+          <t>রুভায় দাশ</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০০১৫</t>
+          <t>১৫২৪০৭০০০০১৯</t>
         </is>
       </c>
       <c r="D88" s="4" t="inlineStr">
         <is>
-          <t>কুশারাম দাশ</t>
+          <t>বাঁশী সোহন দাশ</t>
         </is>
       </c>
       <c r="E88" s="4" t="inlineStr">
         <is>
-          <t>শোভারানী দাশ</t>
+          <t>পুকুলী দাশ</t>
         </is>
       </c>
       <c r="F88" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>জেলে</t>
         </is>
       </c>
       <c r="G88" s="3" t="inlineStr">
         <is>
-          <t>০৭/০৩/১৯৯১</t>
+          <t>০৭/০৮/১৯৭৩</t>
         </is>
       </c>
       <c r="H88" s="5" t="inlineStr">
@@ -4154,37 +4130,37 @@
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>২১৭</t>
+          <t>২১৮</t>
         </is>
       </c>
       <c r="B89" s="4" t="inlineStr">
         <is>
-          <t>রঞ্জিত শর্মা</t>
+          <t>মিন্টু দাশ</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০০১৪</t>
+          <t>১৫২৪০৭০০০০১৫</t>
         </is>
       </c>
       <c r="D89" s="4" t="inlineStr">
         <is>
-          <t>এক্ষপদ শর্মা</t>
+          <t>কুশারাম দাশ</t>
         </is>
       </c>
       <c r="E89" s="4" t="inlineStr">
         <is>
-          <t>নুপুর বালা শর্মা</t>
+          <t>শোভারানী দাশ</t>
         </is>
       </c>
       <c r="F89" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G89" s="3" t="inlineStr">
         <is>
-          <t>০৩/১০/১৯৫২</t>
+          <t>০৭/০৩/১৯৯১</t>
         </is>
       </c>
       <c r="H89" s="5" t="inlineStr">
@@ -4196,37 +4172,37 @@
     <row r="90">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>২২২</t>
+          <t>২১৭</t>
         </is>
       </c>
       <c r="B90" s="4" t="inlineStr">
         <is>
-          <t>মোহন হরি দাশ</t>
+          <t>রঞ্জিত শর্মা</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০০২০</t>
+          <t>১৫২৪০৭০০০০১৪</t>
         </is>
       </c>
       <c r="D90" s="4" t="inlineStr">
         <is>
-          <t>ভৈরবচন্দ্র দাশ</t>
+          <t>এক্ষপদ শর্মা</t>
         </is>
       </c>
       <c r="E90" s="4" t="inlineStr">
         <is>
-          <t>মন্তাধরী দাশ</t>
+          <t>নুপুর বালা শর্মা</t>
         </is>
       </c>
       <c r="F90" s="3" t="inlineStr">
         <is>
-          <t>জেলে</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G90" s="3" t="inlineStr">
         <is>
-          <t>০৭/০৩/১৯৪৯</t>
+          <t>০৩/১০/১৯৫২</t>
         </is>
       </c>
       <c r="H90" s="5" t="inlineStr">
@@ -4238,111 +4214,111 @@
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>২৪১</t>
+          <t>২২২</t>
         </is>
       </c>
       <c r="B91" s="4" t="inlineStr">
         <is>
-          <t>রবেল কৈবর্ত দাশ</t>
+          <t>মোহন হরি দাশ</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০০৫২</t>
+          <t>১৫২৪০৭০০০০২০</t>
         </is>
       </c>
       <c r="D91" s="4" t="inlineStr">
         <is>
-          <t>শচীন্দ্র দাশ</t>
+          <t>ভৈরবচন্দ্র দাশ</t>
         </is>
       </c>
       <c r="E91" s="4" t="inlineStr">
         <is>
-          <t>মল্লিকা দাশ</t>
+          <t>মন্তাধরী দাশ</t>
         </is>
       </c>
       <c r="F91" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>জেলে</t>
         </is>
       </c>
       <c r="G91" s="3" t="inlineStr">
         <is>
-          <t>০৩/০৬/১৯৯২</t>
+          <t>০৭/০৩/১৯৪৯</t>
         </is>
       </c>
       <c r="H91" s="5" t="inlineStr">
         <is>
-          <t>কেবর্ত পাড়া, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>কেবত্যপাড়া, পং আমিলাইশ, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>৩২৭</t>
+          <t>২৪১</t>
         </is>
       </c>
       <c r="B92" s="4" t="inlineStr">
         <is>
-          <t>রাজকুমার দাশ</t>
+          <t>রবেল কৈবর্ত দাশ</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০১৮৪</t>
+          <t>১৫২৪০৭০০০০৫২</t>
         </is>
       </c>
       <c r="D92" s="4" t="inlineStr">
         <is>
-          <t>পশুরাম দাশ</t>
+          <t>শচীন্দ্র দাশ</t>
         </is>
       </c>
       <c r="E92" s="4" t="inlineStr">
         <is>
-          <t>রেনু বালা দাশ</t>
+          <t>মল্লিকা দাশ</t>
         </is>
       </c>
       <c r="F92" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G92" s="3" t="inlineStr">
         <is>
-          <t>০৩/০৫/১৯৭৪</t>
+          <t>০৩/০৬/১৯৯২</t>
         </is>
       </c>
       <c r="H92" s="5" t="inlineStr">
         <is>
-          <t>০০২৯, কেবর্ত্য পাড়া, পশ্চিম আমিলাইশ, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>কেবর্ত পাড়া, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>৩২৮</t>
+          <t>৩২৭</t>
         </is>
       </c>
       <c r="B93" s="4" t="inlineStr">
         <is>
-          <t>অরুণ সেন দাশ</t>
+          <t>রাজকুমার দাশ</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০১৯০</t>
+          <t>১৫২৪০৭০০০১৮৪</t>
         </is>
       </c>
       <c r="D93" s="4" t="inlineStr">
         <is>
-          <t>চান হরি দাশ</t>
+          <t>পশুরাম দাশ</t>
         </is>
       </c>
       <c r="E93" s="4" t="inlineStr">
         <is>
-          <t>শ্রী মতি বালা দাশ</t>
+          <t>রেনু বালা দাশ</t>
         </is>
       </c>
       <c r="F93" s="3" t="inlineStr">
@@ -4352,138 +4328,138 @@
       </c>
       <c r="G93" s="3" t="inlineStr">
         <is>
-          <t>২৪/০২/১৯৭১</t>
+          <t>০৩/০৫/১৯৭৪</t>
         </is>
       </c>
       <c r="H93" s="5" t="inlineStr">
         <is>
-          <t>৯৮, কেবর্ত্য পাড়া, পশ্চিম আমিলাইশ, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>০০২৯, কেবর্ত্য পাড়া, পশ্চিম আমিলাইশ, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>৩১০</t>
+          <t>৩২৮</t>
         </is>
       </c>
       <c r="B94" s="4" t="inlineStr">
         <is>
-          <t>শ্রীকান্ত দাশ</t>
+          <t>অরুণ সেন দাশ</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০১৬৭</t>
+          <t>১৫২৪০৭০০০১৯০</t>
         </is>
       </c>
       <c r="D94" s="4" t="inlineStr">
         <is>
-          <t>মুদল দাশ</t>
+          <t>চান হরি দাশ</t>
         </is>
       </c>
       <c r="E94" s="4" t="inlineStr">
         <is>
-          <t>রুপালী দাশ</t>
+          <t>শ্রী মতি বালা দাশ</t>
         </is>
       </c>
       <c r="F94" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G94" s="3" t="inlineStr">
         <is>
-          <t>০৮/০৭/২০০২</t>
+          <t>২৪/০২/১৯৭১</t>
         </is>
       </c>
       <c r="H94" s="5" t="inlineStr">
         <is>
-          <t>কৈবর্ত পাড়া, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>৯৮, কেবর্ত্য পাড়া, পশ্চিম আমিলাইশ, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>১৯৯</t>
+          <t>৩১০</t>
         </is>
       </c>
       <c r="B95" s="4" t="inlineStr">
         <is>
-          <t>কোশা রাম দাশ</t>
+          <t>শ্রীকান্ত দাশ</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭৭৪৮৭</t>
+          <t>১৫২৪০৭০০০১৬৭</t>
         </is>
       </c>
       <c r="D95" s="4" t="inlineStr">
         <is>
-          <t>কিরিটি মোহন দাশ</t>
+          <t>মুদল দাশ</t>
         </is>
       </c>
       <c r="E95" s="4" t="inlineStr">
         <is>
-          <t>পংকজ বালা দাশ</t>
+          <t>রুপালী দাশ</t>
         </is>
       </c>
       <c r="F95" s="3" t="inlineStr">
         <is>
-          <t>জেলে</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G95" s="3" t="inlineStr">
         <is>
-          <t>২২/০৬/১৯৬৭</t>
+          <t>০৮/০৭/২০০২</t>
         </is>
       </c>
       <c r="H95" s="5" t="inlineStr">
         <is>
-          <t>কোশা রাম দাশের বাড়ি, পশ্চিম আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>কৈবর্ত পাড়া, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>২৫০</t>
+          <t>১৯৯</t>
         </is>
       </c>
       <c r="B96" s="4" t="inlineStr">
         <is>
-          <t>নুর মোহাম্মদ</t>
+          <t>কোশা রাম দাশ</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০০৩৩</t>
+          <t>১৫২৪০৭৯৭৭৪৮৭</t>
         </is>
       </c>
       <c r="D96" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল মোমেন</t>
+          <t>কিরিটি মোহন দাশ</t>
         </is>
       </c>
       <c r="E96" s="4" t="inlineStr">
         <is>
-          <t>ফাতেমা বেগম</t>
+          <t>পংকজ বালা দাশ</t>
         </is>
       </c>
       <c r="F96" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>জেলে</t>
         </is>
       </c>
       <c r="G96" s="3" t="inlineStr">
         <is>
-          <t>০৬/০২/১৯৯৪</t>
+          <t>২২/০৬/১৯৬৭</t>
         </is>
       </c>
       <c r="H96" s="5" t="inlineStr">
         <is>
-          <t>খলিফার পাড়া, পশ্চিম আমিলাইশ, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>কোশা রাম দাশের বাড়ি, পশ্চিম আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -4532,111 +4508,111 @@
     <row r="98">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>২৪৯</t>
+          <t>২৫০</t>
         </is>
       </c>
       <c r="B98" s="4" t="inlineStr">
         <is>
-          <t>মো. জসীমউদ্দীন</t>
+          <t>নুর মোহাম্মদ</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০০৬২</t>
+          <t>১৫২৪০৭০০০০৩৩</t>
         </is>
       </c>
       <c r="D98" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ ইসহাক</t>
+          <t>আব্দুল মোমেন</t>
         </is>
       </c>
       <c r="E98" s="4" t="inlineStr">
         <is>
-          <t>নুরজাহান বেগম</t>
+          <t>ফাতেমা বেগম</t>
         </is>
       </c>
       <c r="F98" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G98" s="3" t="inlineStr">
         <is>
-          <t>০৬/০৫/১৯৯৪</t>
+          <t>০৬/০২/১৯৯৪</t>
         </is>
       </c>
       <c r="H98" s="5" t="inlineStr">
         <is>
-          <t>খলিফার পাড়া, পশ্চিম আমিলাইশ, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>খলিফার পাড়া, পশ্চিম আমিলাইশ, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>১১৩</t>
+          <t>২৪৯</t>
         </is>
       </c>
       <c r="B99" s="4" t="inlineStr">
         <is>
-          <t>মোজাহফফর আহম্মদ</t>
+          <t>মো. জসীমউদ্দীন</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭০৬০৯</t>
+          <t>১৫২৪০৭০০০০৬২</t>
         </is>
       </c>
       <c r="D99" s="4" t="inlineStr">
         <is>
-          <t>মনজির আহম্মদ</t>
+          <t>মুহাম্মদ ইসহাক</t>
         </is>
       </c>
       <c r="E99" s="4" t="inlineStr">
         <is>
-          <t>জরিমন খাতুন</t>
+          <t>নুরজাহান বেগম</t>
         </is>
       </c>
       <c r="F99" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G99" s="3" t="inlineStr">
         <is>
-          <t>০৫/০২/১৯৫৭</t>
+          <t>০৬/০৫/১৯৯৪</t>
         </is>
       </c>
       <c r="H99" s="5" t="inlineStr">
         <is>
-          <t>খলিফার বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>খলিফার পাড়া, পশ্চিম আমিলাইশ, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>১১০</t>
+          <t>০৬৯</t>
         </is>
       </c>
       <c r="B100" s="4" t="inlineStr">
         <is>
-          <t>খোরশেদ আলম</t>
+          <t>মনির আহমেদ</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭০৬০৫</t>
+          <t>১৫২৪০৭৯৭০২৯২</t>
         </is>
       </c>
       <c r="D100" s="4" t="inlineStr">
         <is>
-          <t>আবুল খাইর</t>
+          <t>আবু তাহের</t>
         </is>
       </c>
       <c r="E100" s="4" t="inlineStr">
         <is>
-          <t>মাবিয়া খাতুন</t>
+          <t>নুর আয়শা বেগম</t>
         </is>
       </c>
       <c r="F100" s="3" t="inlineStr">
@@ -4646,7 +4622,7 @@
       </c>
       <c r="G100" s="3" t="inlineStr">
         <is>
-          <t>১৭/১১/১৯৮২</t>
+          <t>১২/০৭/১৯৮০</t>
         </is>
       </c>
       <c r="H100" s="5" t="inlineStr">
@@ -4658,37 +4634,37 @@
     <row r="101">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>১০৮</t>
+          <t>০৫৮</t>
         </is>
       </c>
       <c r="B101" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আবুল কালাম</t>
+          <t>মোঃ জুবাইর</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭০৬০২</t>
+          <t>১৫২৪০৭৯৭০২৫৪</t>
         </is>
       </c>
       <c r="D101" s="4" t="inlineStr">
         <is>
-          <t>সোলতান আহমেদ</t>
+          <t>ছাবের আহমেদ</t>
         </is>
       </c>
       <c r="E101" s="4" t="inlineStr">
         <is>
-          <t>ছমন খাতুন</t>
+          <t>খালেদা বেগম</t>
         </is>
       </c>
       <c r="F101" s="3" t="inlineStr">
         <is>
-          <t>দিনমজুর</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G101" s="3" t="inlineStr">
         <is>
-          <t>০২/০৪/১৯৭১</t>
+          <t>১৭/০১/১৯৮৮</t>
         </is>
       </c>
       <c r="H101" s="5" t="inlineStr">
@@ -4700,37 +4676,37 @@
     <row r="102">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>১১১</t>
+          <t>০৫৭</t>
         </is>
       </c>
       <c r="B102" s="4" t="inlineStr">
         <is>
-          <t>মোঃ আমীন</t>
+          <t>মোহাঃ আব্দুল মালেক</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭০৬০৬</t>
+          <t>১৫২৪০৭৯৭০২৫১</t>
         </is>
       </c>
       <c r="D102" s="4" t="inlineStr">
         <is>
-          <t>মাজাহফফর আহম্মদ</t>
+          <t>আব্দুল করিম</t>
         </is>
       </c>
       <c r="E102" s="4" t="inlineStr">
         <is>
-          <t>আনোয়ারা বেগম</t>
+          <t>সুফিয়া বেগম</t>
         </is>
       </c>
       <c r="F102" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G102" s="3" t="inlineStr">
         <is>
-          <t>২৭/০২/১৯৮৫</t>
+          <t>১২/০৭/১৯৫৬</t>
         </is>
       </c>
       <c r="H102" s="5" t="inlineStr">
@@ -4742,79 +4718,79 @@
     <row r="103">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>৩৭১</t>
+          <t>১১৩</t>
         </is>
       </c>
       <c r="B103" s="4" t="inlineStr">
         <is>
-          <t>আরিফুল ইসলাম</t>
+          <t>মোজাহফফর আহম্মদ</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০২৭০</t>
+          <t>১৫২৪০৭৯৭০৬০৯</t>
         </is>
       </c>
       <c r="D103" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আবুল কালাম</t>
+          <t>মনজির আহম্মদ</t>
         </is>
       </c>
       <c r="E103" s="4" t="inlineStr">
         <is>
-          <t>জাহানারা বেগম</t>
+          <t>জরিমন খাতুন</t>
         </is>
       </c>
       <c r="F103" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G103" s="3" t="inlineStr">
         <is>
-          <t>১২/০৪/২০০৭</t>
+          <t>০৫/০২/১৯৫৭</t>
         </is>
       </c>
       <c r="H103" s="5" t="inlineStr">
         <is>
-          <t>৫৪, খলিফার বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>খলিফার বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>১০৭</t>
+          <t>১১০</t>
         </is>
       </c>
       <c r="B104" s="4" t="inlineStr">
         <is>
-          <t>সেলিম উদ্দীন</t>
+          <t>খোরশেদ আলম</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭০৬০১</t>
+          <t>১৫২৪০৭৯৭০৬০৫</t>
         </is>
       </c>
       <c r="D104" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ ইসহাক</t>
+          <t>আবুল খাইর</t>
         </is>
       </c>
       <c r="E104" s="4" t="inlineStr">
         <is>
-          <t>নুরজাহান বেগম</t>
+          <t>মাবিয়া খাতুন</t>
         </is>
       </c>
       <c r="F104" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G104" s="3" t="inlineStr">
         <is>
-          <t>১৬/১১/১৯৮৫</t>
+          <t>১৭/১১/১৯৮২</t>
         </is>
       </c>
       <c r="H104" s="5" t="inlineStr">
@@ -4826,37 +4802,37 @@
     <row r="105">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>০৫৭</t>
+          <t>১১১</t>
         </is>
       </c>
       <c r="B105" s="4" t="inlineStr">
         <is>
-          <t>মোহাঃ আব্দুল মালেক</t>
+          <t>মোঃ আমীন</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭০২৫১</t>
+          <t>১৫২৪০৭৯৭০৬০৬</t>
         </is>
       </c>
       <c r="D105" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল করিম</t>
+          <t>মাজাহফফর আহম্মদ</t>
         </is>
       </c>
       <c r="E105" s="4" t="inlineStr">
         <is>
-          <t>সুফিয়া বেগম</t>
+          <t>আনোয়ারা বেগম</t>
         </is>
       </c>
       <c r="F105" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G105" s="3" t="inlineStr">
         <is>
-          <t>১২/০৭/১৯৫৬</t>
+          <t>২৭/০২/১৯৮৫</t>
         </is>
       </c>
       <c r="H105" s="5" t="inlineStr">
@@ -4868,37 +4844,37 @@
     <row r="106">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>০৫৮</t>
+          <t>১০৮</t>
         </is>
       </c>
       <c r="B106" s="4" t="inlineStr">
         <is>
-          <t>মোঃ জুবাইর</t>
+          <t>মোহাম্মদ আবুল কালাম</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭০২৫৪</t>
+          <t>১৫২৪০৭৯৭০৬০২</t>
         </is>
       </c>
       <c r="D106" s="4" t="inlineStr">
         <is>
-          <t>ছাবের আহমেদ</t>
+          <t>সোলতান আহমেদ</t>
         </is>
       </c>
       <c r="E106" s="4" t="inlineStr">
         <is>
-          <t>খালেদা বেগম</t>
+          <t>ছমন খাতুন</t>
         </is>
       </c>
       <c r="F106" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>দিনমজুর</t>
         </is>
       </c>
       <c r="G106" s="3" t="inlineStr">
         <is>
-          <t>১৭/০১/১৯৮৮</t>
+          <t>০২/০৪/১৯৭১</t>
         </is>
       </c>
       <c r="H106" s="5" t="inlineStr">
@@ -4910,42 +4886,42 @@
     <row r="107">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>০৬৯</t>
+          <t>৩৭১</t>
         </is>
       </c>
       <c r="B107" s="4" t="inlineStr">
         <is>
-          <t>মনির আহমেদ</t>
+          <t>আরিফুল ইসলাম</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭০২৯২</t>
+          <t>১৫২৪০৭০০০২৭০</t>
         </is>
       </c>
       <c r="D107" s="4" t="inlineStr">
         <is>
-          <t>আবু তাহের</t>
+          <t>মোহাম্মদ আবুল কালাম</t>
         </is>
       </c>
       <c r="E107" s="4" t="inlineStr">
         <is>
-          <t>নুর আয়শা বেগম</t>
+          <t>জাহানারা বেগম</t>
         </is>
       </c>
       <c r="F107" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G107" s="3" t="inlineStr">
         <is>
-          <t>১২/০৭/১৯৮০</t>
+          <t>১২/০৪/২০০৭</t>
         </is>
       </c>
       <c r="H107" s="5" t="inlineStr">
         <is>
-          <t>খলিফার বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>৫৪, খলিফার বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -4994,27 +4970,27 @@
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>৩০৭</t>
+          <t>১০৭</t>
         </is>
       </c>
       <c r="B109" s="4" t="inlineStr">
         <is>
-          <t>কামরুল ইসলাম</t>
+          <t>সেলিম উদ্দীন</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০১৫৮</t>
+          <t>১৫২৪০৭৯৭০৬০১</t>
         </is>
       </c>
       <c r="D109" s="4" t="inlineStr">
         <is>
-          <t>আহমদ কবির</t>
+          <t>মুহাম্মদ ইসহাক</t>
         </is>
       </c>
       <c r="E109" s="4" t="inlineStr">
         <is>
-          <t>খদিজা বেগম</t>
+          <t>নুরজাহান বেগম</t>
         </is>
       </c>
       <c r="F109" s="3" t="inlineStr">
@@ -5024,39 +5000,39 @@
       </c>
       <c r="G109" s="3" t="inlineStr">
         <is>
-          <t>২০/১২/২০০২</t>
+          <t>১৬/১১/১৯৮৫</t>
         </is>
       </c>
       <c r="H109" s="5" t="inlineStr">
         <is>
-          <t>খলিফার বাড়ি, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>খলিফার বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>২৪০</t>
+          <t>৩০৭</t>
         </is>
       </c>
       <c r="B110" s="4" t="inlineStr">
         <is>
-          <t>মামুনর রশীদ</t>
+          <t>কামরুল ইসলাম</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০০৮৩</t>
+          <t>১৫২৪০৭০০০১৫৮</t>
         </is>
       </c>
       <c r="D110" s="4" t="inlineStr">
         <is>
-          <t>মাহমুদুল হক</t>
+          <t>আহমদ কবির</t>
         </is>
       </c>
       <c r="E110" s="4" t="inlineStr">
         <is>
-          <t>রাহিমা খাতুন</t>
+          <t>খদিজা বেগম</t>
         </is>
       </c>
       <c r="F110" s="3" t="inlineStr">
@@ -5066,207 +5042,207 @@
       </c>
       <c r="G110" s="3" t="inlineStr">
         <is>
-          <t>০৬/০৩/১৯৯২</t>
+          <t>২০/১২/২০০২</t>
         </is>
       </c>
       <c r="H110" s="5" t="inlineStr">
         <is>
-          <t>খলিফার বাড়ি, পং আমিলাইস, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>খলিফার বাড়ি, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>২৫৪</t>
+          <t>২৪০</t>
         </is>
       </c>
       <c r="B111" s="4" t="inlineStr">
         <is>
-          <t>মিজানুর রহমান</t>
+          <t>মামুনর রশীদ</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০০৭৫</t>
+          <t>১৫২৪০৭০০০০৮৩</t>
         </is>
       </c>
       <c r="D111" s="4" t="inlineStr">
         <is>
-          <t>নুর কাশেম</t>
+          <t>মাহমুদুল হক</t>
         </is>
       </c>
       <c r="E111" s="4" t="inlineStr">
         <is>
-          <t>রাজিয়া বেগম</t>
+          <t>রাহিমা খাতুন</t>
         </is>
       </c>
       <c r="F111" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G111" s="3" t="inlineStr">
         <is>
-          <t>২৮/১২/১৯৯৪</t>
+          <t>০৬/০৩/১৯৯২</t>
         </is>
       </c>
       <c r="H111" s="5" t="inlineStr">
         <is>
-          <t>খলিফার বাড়ি, পঃ আমিলাইশ, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>খলিফার বাড়ি, পং আমিলাইস, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>৩১২</t>
+          <t>২৫৪</t>
         </is>
       </c>
       <c r="B112" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ শরিফ</t>
+          <t>মিজানুর রহমান</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০১৬৯</t>
+          <t>১৫২৪০৭০০০০৭৫</t>
         </is>
       </c>
       <c r="D112" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ইদ্রিস</t>
+          <t>নুর কাশেম</t>
         </is>
       </c>
       <c r="E112" s="4" t="inlineStr">
         <is>
-          <t>কুলচুমা বেগম</t>
+          <t>রাজিয়া বেগম</t>
         </is>
       </c>
       <c r="F112" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G112" s="3" t="inlineStr">
         <is>
-          <t>১৫/১০/২০০২</t>
+          <t>২৮/১২/১৯৯৪</t>
         </is>
       </c>
       <c r="H112" s="5" t="inlineStr">
         <is>
-          <t>খলিফার বাড়িতে, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>খলিফার বাড়ি, পঃ আমিলাইশ, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>০৪৬</t>
+          <t>৩১২</t>
         </is>
       </c>
       <c r="B113" s="4" t="inlineStr">
         <is>
-          <t>আবুল কাশেম</t>
+          <t>মোহাম্মদ শরিফ</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭০২২৬</t>
+          <t>১৫২৪০৭০০০১৬৯</t>
         </is>
       </c>
       <c r="D113" s="4" t="inlineStr">
         <is>
-          <t>সোলতান আহমেদ</t>
+          <t>মোহাম্মদ ইদ্রিস</t>
         </is>
       </c>
       <c r="E113" s="4" t="inlineStr">
         <is>
-          <t>ছমন খাতুন</t>
+          <t>কুলচুমা বেগম</t>
         </is>
       </c>
       <c r="F113" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G113" s="3" t="inlineStr">
         <is>
-          <t>১১/০১/১৯৬৯</t>
+          <t>১৫/১০/২০০২</t>
         </is>
       </c>
       <c r="H113" s="5" t="inlineStr">
         <is>
-          <t>খলিবার বাড়ী, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>খলিফার বাড়িতে, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="3" t="inlineStr">
         <is>
-          <t>০৭২</t>
+          <t>০৪৬</t>
         </is>
       </c>
       <c r="B114" s="4" t="inlineStr">
         <is>
-          <t>মোঃ হাসান</t>
+          <t>আবুল কাশেম</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭০২৯৫</t>
+          <t>১৫২৪০৭৯৭০২২৬</t>
         </is>
       </c>
       <c r="D114" s="4" t="inlineStr">
         <is>
-          <t>হৈয়েদ আহমাদ</t>
+          <t>সোলতান আহমেদ</t>
         </is>
       </c>
       <c r="E114" s="4" t="inlineStr">
         <is>
-          <t>ইসলাম খাতুন</t>
+          <t>ছমন খাতুন</t>
         </is>
       </c>
       <c r="F114" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G114" s="3" t="inlineStr">
         <is>
-          <t>০২/০৩/১৯৮৫</t>
+          <t>১১/০১/১৯৬৯</t>
         </is>
       </c>
       <c r="H114" s="5" t="inlineStr">
         <is>
-          <t>খলিলার বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>খলিবার বাড়ী, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="3" t="inlineStr">
         <is>
-          <t>০৭৩</t>
+          <t>০৭২</t>
         </is>
       </c>
       <c r="B115" s="4" t="inlineStr">
         <is>
-          <t>আহমাদ হোসাইন</t>
+          <t>মোঃ হাসান</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭০২৯৬</t>
+          <t>১৫২৪০৭৯৭০২৯৫</t>
         </is>
       </c>
       <c r="D115" s="4" t="inlineStr">
         <is>
-          <t>নজির আহমাদ</t>
+          <t>হৈয়েদ আহমাদ</t>
         </is>
       </c>
       <c r="E115" s="4" t="inlineStr">
         <is>
-          <t>রশিদা বেগম</t>
+          <t>ইসলাম খাতুন</t>
         </is>
       </c>
       <c r="F115" s="3" t="inlineStr">
@@ -5276,7 +5252,7 @@
       </c>
       <c r="G115" s="3" t="inlineStr">
         <is>
-          <t>১৮/০৩/১৯৭০</t>
+          <t>০২/০৩/১৯৮৫</t>
         </is>
       </c>
       <c r="H115" s="5" t="inlineStr">
@@ -5288,153 +5264,153 @@
     <row r="116">
       <c r="A116" s="3" t="inlineStr">
         <is>
-          <t>৩৪৯</t>
+          <t>০৭৩</t>
         </is>
       </c>
       <c r="B116" s="4" t="inlineStr">
         <is>
-          <t>তোহিদুল ইসলাম</t>
+          <t>আহমাদ হোসাইন</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০২৩৪</t>
+          <t>১৫২৪০৭৯৭০২৯৬</t>
         </is>
       </c>
       <c r="D116" s="4" t="inlineStr">
         <is>
-          <t>মোহাঃ আব্দুল মালেক</t>
+          <t>নজির আহমাদ</t>
         </is>
       </c>
       <c r="E116" s="4" t="inlineStr">
         <is>
-          <t>মোহেনা বেগম</t>
+          <t>রশিদা বেগম</t>
         </is>
       </c>
       <c r="F116" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G116" s="3" t="inlineStr">
         <is>
-          <t>১০/০২/২০০৪</t>
+          <t>১৮/০৩/১৯৭০</t>
         </is>
       </c>
       <c r="H116" s="5" t="inlineStr">
         <is>
-          <t>৭৮, খলীফার বাড়ি, পশ্চিম আমিলাইশ, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>খলিলার বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>৩৪৬</t>
+          <t>৩৪৯</t>
         </is>
       </c>
       <c r="B117" s="4" t="inlineStr">
         <is>
-          <t>মোঃ আবু সাঈদ তকি</t>
+          <t>তোহিদুল ইসলাম</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০২৩০</t>
+          <t>১৫২৪০৭০০০২৩৪</t>
         </is>
       </c>
       <c r="D117" s="4" t="inlineStr">
         <is>
-          <t>মোঃ আবু বকর</t>
+          <t>মোহাঃ আব্দুল মালেক</t>
         </is>
       </c>
       <c r="E117" s="4" t="inlineStr">
         <is>
-          <t>রোশন আরা বেগম</t>
+          <t>মোহেনা বেগম</t>
         </is>
       </c>
       <c r="F117" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G117" s="3" t="inlineStr">
         <is>
-          <t>১৫/০৩/২০০৪</t>
+          <t>১০/০২/২০০৪</t>
         </is>
       </c>
       <c r="H117" s="5" t="inlineStr">
         <is>
-          <t>০১৬৯, খলীফার বাড়ি, পশ্চিম আমিলাইশ, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>৭৮, খলীফার বাড়ি, পশ্চিম আমিলাইশ, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="3" t="inlineStr">
         <is>
-          <t>৩৫১</t>
+          <t>৩৪৬</t>
         </is>
       </c>
       <c r="B118" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ শোয়াইব</t>
+          <t>মোঃ আবু সাঈদ তকি</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০২৩৬</t>
+          <t>১৫২৪০৭০০০২৩০</t>
         </is>
       </c>
       <c r="D118" s="4" t="inlineStr">
         <is>
-          <t>মৃত মোহাম্মদ ইদ্রিস</t>
+          <t>মোঃ আবু বকর</t>
         </is>
       </c>
       <c r="E118" s="4" t="inlineStr">
         <is>
-          <t>কুলচুমা বেগম</t>
+          <t>রোশন আরা বেগম</t>
         </is>
       </c>
       <c r="F118" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G118" s="3" t="inlineStr">
         <is>
-          <t>১৫/১০/২০০৪</t>
+          <t>১৫/০৩/২০০৪</t>
         </is>
       </c>
       <c r="H118" s="5" t="inlineStr">
         <is>
-          <t>১১৯, খলীবার বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>০১৬৯, খলীফার বাড়ি, পশ্চিম আমিলাইশ, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="3" t="inlineStr">
         <is>
-          <t>০৪৩</t>
+          <t>৩৫১</t>
         </is>
       </c>
       <c r="B119" s="4" t="inlineStr">
         <is>
-          <t>মোঃ আবু বকর</t>
+          <t>মোহাম্মদ শোয়াইব</t>
         </is>
       </c>
       <c r="C119" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭০২০৮</t>
+          <t>১৫২৪০৭০০০২৩৬</t>
         </is>
       </c>
       <c r="D119" s="4" t="inlineStr">
         <is>
-          <t>জামাল উদ্দীন</t>
+          <t>মৃত মোহাম্মদ ইদ্রিস</t>
         </is>
       </c>
       <c r="E119" s="4" t="inlineStr">
         <is>
-          <t>রহিমা বেগম</t>
+          <t>কুলচুমা বেগম</t>
         </is>
       </c>
       <c r="F119" s="3" t="inlineStr">
@@ -5444,123 +5420,123 @@
       </c>
       <c r="G119" s="3" t="inlineStr">
         <is>
-          <t>০৩/১১/১৯৬৫</t>
+          <t>১৫/১০/২০০৪</t>
         </is>
       </c>
       <c r="H119" s="5" t="inlineStr">
         <is>
-          <t>খালিবার বাড়ী, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>১১৯, খলীবার বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="3" t="inlineStr">
         <is>
-          <t>১৫৯</t>
+          <t>০৪৩</t>
         </is>
       </c>
       <c r="B120" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল খালেক</t>
+          <t>মোঃ আবু বকর</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭৭৩৬৫</t>
+          <t>১৫২৪০৭৯৭০২০৮</t>
         </is>
       </c>
       <c r="D120" s="4" t="inlineStr">
         <is>
-          <t>ত্রাবাদুল্লা</t>
+          <t>জামাল উদ্দীন</t>
         </is>
       </c>
       <c r="E120" s="4" t="inlineStr">
         <is>
-          <t>ছাবা খাতুন</t>
+          <t>রহিমা বেগম</t>
         </is>
       </c>
       <c r="F120" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G120" s="3" t="inlineStr">
         <is>
-          <t>২০/১১/১৯৩৫</t>
+          <t>০৩/১১/১৯৬৫</t>
         </is>
       </c>
       <c r="H120" s="5" t="inlineStr">
         <is>
-          <t>খালেকের বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>খালিবার বাড়ী, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="3" t="inlineStr">
         <is>
-          <t>০৯৯</t>
+          <t>১৫৯</t>
         </is>
       </c>
       <c r="B121" s="4" t="inlineStr">
         <is>
-          <t>গঙ্গা দাশ</t>
+          <t>আব্দুল খালেক</t>
         </is>
       </c>
       <c r="C121" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭০৫৩৬</t>
+          <t>১৫২৪০৭৯৭৭৩৬৫</t>
         </is>
       </c>
       <c r="D121" s="4" t="inlineStr">
         <is>
-          <t>বৃন্দ দাশ</t>
+          <t>ত্রাবাদুল্লা</t>
         </is>
       </c>
       <c r="E121" s="4" t="inlineStr">
         <is>
-          <t>সাবিত্রী দাশ</t>
+          <t>ছাবা খাতুন</t>
         </is>
       </c>
       <c r="F121" s="3" t="inlineStr">
         <is>
-          <t>জেলে</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G121" s="3" t="inlineStr">
         <is>
-          <t>০১/০৫/১৯৫৭</t>
+          <t>২০/১১/১৯৩৫</t>
         </is>
       </c>
       <c r="H121" s="5" t="inlineStr">
         <is>
-          <t>গঙ্গা দাশে বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>খালেকের বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="3" t="inlineStr">
         <is>
-          <t>২৫৮</t>
+          <t>০৯৯</t>
         </is>
       </c>
       <c r="B122" s="4" t="inlineStr">
         <is>
-          <t>কবেল দাশ</t>
+          <t>গঙ্গা দাশ</t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০০৮০</t>
+          <t>১৫২৪০৭৯৭০৫৩৬</t>
         </is>
       </c>
       <c r="D122" s="4" t="inlineStr">
         <is>
-          <t>গঙ্গা দাশ</t>
+          <t>বৃন্দ দাশ</t>
         </is>
       </c>
       <c r="E122" s="4" t="inlineStr">
         <is>
-          <t>রীতী দাশ</t>
+          <t>সাবিত্রী দাশ</t>
         </is>
       </c>
       <c r="F122" s="3" t="inlineStr">
@@ -5570,39 +5546,39 @@
       </c>
       <c r="G122" s="3" t="inlineStr">
         <is>
-          <t>০২/০৬/১৯৯৪</t>
+          <t>০১/০৫/১৯৫৭</t>
         </is>
       </c>
       <c r="H122" s="5" t="inlineStr">
         <is>
-          <t>৩৬, গঙ্গা দাশের বাড়ি, পশ্চিম আমিলাইশ, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>গঙ্গা দাশে বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="3" t="inlineStr">
         <is>
-          <t>১৮৬</t>
+          <t>২৫৮</t>
         </is>
       </c>
       <c r="B123" s="4" t="inlineStr">
         <is>
-          <t>সিন্দু দাশ</t>
+          <t>কবেল দাশ</t>
         </is>
       </c>
       <c r="C123" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭৭৪৩৬</t>
+          <t>১৫২৪০৭০০০০৮০</t>
         </is>
       </c>
       <c r="D123" s="4" t="inlineStr">
         <is>
-          <t>গুনধর দাশ</t>
+          <t>গঙ্গা দাশ</t>
         </is>
       </c>
       <c r="E123" s="4" t="inlineStr">
         <is>
-          <t>জোনা বালা দাশ</t>
+          <t>রীতী দাশ</t>
         </is>
       </c>
       <c r="F123" s="3" t="inlineStr">
@@ -5612,12 +5588,12 @@
       </c>
       <c r="G123" s="3" t="inlineStr">
         <is>
-          <t>১০/০৯/১৯৮১</t>
+          <t>০২/০৬/১৯৯৪</t>
         </is>
       </c>
       <c r="H123" s="5" t="inlineStr">
         <is>
-          <t>গুনধর দাশের বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>৩৬, গঙ্গা দাশের বাড়ি, পশ্চিম আমিলাইশ, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -5666,111 +5642,111 @@
     <row r="125">
       <c r="A125" s="3" t="inlineStr">
         <is>
-          <t>৩৪৪</t>
+          <t>১৮৬</t>
         </is>
       </c>
       <c r="B125" s="4" t="inlineStr">
         <is>
-          <t>সাগর দাশ</t>
+          <t>সিন্দু দাশ</t>
         </is>
       </c>
       <c r="C125" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০২২৮</t>
+          <t>১৫২৪০৭৯৭৭৪৩৬</t>
         </is>
       </c>
       <c r="D125" s="4" t="inlineStr">
         <is>
-          <t>রবীন্দ্র দাশ</t>
+          <t>গুনধর দাশ</t>
         </is>
       </c>
       <c r="E125" s="4" t="inlineStr">
         <is>
-          <t>দেব রানী দাশ</t>
+          <t>জোনা বালা দাশ</t>
         </is>
       </c>
       <c r="F125" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>জেলে</t>
         </is>
       </c>
       <c r="G125" s="3" t="inlineStr">
         <is>
-          <t>১৫/০১/২০০২</t>
+          <t>১০/০৯/১৯৮১</t>
         </is>
       </c>
       <c r="H125" s="5" t="inlineStr">
         <is>
-          <t>১৫৩, গুরু দাশের বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>গুনধর দাশের বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="3" t="inlineStr">
         <is>
-          <t>০৯৭</t>
+          <t>৩৪৪</t>
         </is>
       </c>
       <c r="B126" s="4" t="inlineStr">
         <is>
-          <t>রুপন দাশ</t>
+          <t>সাগর দাশ</t>
         </is>
       </c>
       <c r="C126" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭০৫৩৩</t>
+          <t>১৫২৪০৭০০০২২৮</t>
         </is>
       </c>
       <c r="D126" s="4" t="inlineStr">
         <is>
-          <t>গুরু পদ দাশ</t>
+          <t>রবীন্দ্র দাশ</t>
         </is>
       </c>
       <c r="E126" s="4" t="inlineStr">
         <is>
-          <t>শুভা রানী দাশ</t>
+          <t>দেব রানী দাশ</t>
         </is>
       </c>
       <c r="F126" s="3" t="inlineStr">
         <is>
-          <t>জেলে</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G126" s="3" t="inlineStr">
         <is>
-          <t>০৩/০১/১৯৮৬</t>
+          <t>১৫/০১/২০০২</t>
         </is>
       </c>
       <c r="H126" s="5" t="inlineStr">
         <is>
-          <t>গুরুপদ দাশের বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>১৫৩, গুরু দাশের বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="3" t="inlineStr">
         <is>
-          <t>০১৪</t>
+          <t>০৯৭</t>
         </is>
       </c>
       <c r="B127" s="4" t="inlineStr">
         <is>
-          <t>গুৰুপদ দাশ</t>
+          <t>রুপন দাশ</t>
         </is>
       </c>
       <c r="C127" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭০১২৪</t>
+          <t>১৫২৪০৭৯৭০৫৩৩</t>
         </is>
       </c>
       <c r="D127" s="4" t="inlineStr">
         <is>
-          <t>মনোৰঞ্জন দাশ</t>
+          <t>গুরু পদ দাশ</t>
         </is>
       </c>
       <c r="E127" s="4" t="inlineStr">
         <is>
-          <t>চম্পা বালা দাশ</t>
+          <t>শুভা রানী দাশ</t>
         </is>
       </c>
       <c r="F127" s="3" t="inlineStr">
@@ -5780,39 +5756,39 @@
       </c>
       <c r="G127" s="3" t="inlineStr">
         <is>
-          <t>০১/০৭/১৯৮৮</t>
+          <t>০৩/০১/১৯৮৬</t>
         </is>
       </c>
       <c r="H127" s="5" t="inlineStr">
         <is>
-          <t>গুৰুপদ দাশেৰ বাড়ী, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>গুরুপদ দাশের বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="3" t="inlineStr">
         <is>
-          <t>০৮৭</t>
+          <t>০১৪</t>
         </is>
       </c>
       <c r="B128" s="4" t="inlineStr">
         <is>
-          <t>অমল দাশ</t>
+          <t>গুৰুপদ দাশ</t>
         </is>
       </c>
       <c r="C128" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭০৫১৩</t>
+          <t>১৫২৪০৭৯৭০১২৪</t>
         </is>
       </c>
       <c r="D128" s="4" t="inlineStr">
         <is>
-          <t>গোপাল হরি দাশ</t>
+          <t>মনোৰঞ্জন দাশ</t>
         </is>
       </c>
       <c r="E128" s="4" t="inlineStr">
         <is>
-          <t>সুমিত্রা দাশ</t>
+          <t>চম্পা বালা দাশ</t>
         </is>
       </c>
       <c r="F128" s="3" t="inlineStr">
@@ -5822,39 +5798,39 @@
       </c>
       <c r="G128" s="3" t="inlineStr">
         <is>
-          <t>২৭/০২/১৯৭৪</t>
+          <t>০১/০৭/১৯৮৮</t>
         </is>
       </c>
       <c r="H128" s="5" t="inlineStr">
         <is>
-          <t>গোপাল হরি দাশের বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>গুৰুপদ দাশেৰ বাড়ী, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="3" t="inlineStr">
         <is>
-          <t>১০০</t>
+          <t>০৮৭</t>
         </is>
       </c>
       <c r="B129" s="4" t="inlineStr">
         <is>
-          <t>বিবিসেন দাশ</t>
+          <t>অমল দাশ</t>
         </is>
       </c>
       <c r="C129" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭০৫৩৭</t>
+          <t>১৫২৪০৭৯৭০৫১৩</t>
         </is>
       </c>
       <c r="D129" s="4" t="inlineStr">
         <is>
-          <t>চাঁন হরি দাশ</t>
+          <t>গোপাল হরি দাশ</t>
         </is>
       </c>
       <c r="E129" s="4" t="inlineStr">
         <is>
-          <t>শ্রীমতী দাশ</t>
+          <t>সুমিত্রা দাশ</t>
         </is>
       </c>
       <c r="F129" s="3" t="inlineStr">
@@ -5864,39 +5840,39 @@
       </c>
       <c r="G129" s="3" t="inlineStr">
         <is>
-          <t>০৮/০২/১৯৭৬</t>
+          <t>২৭/০২/১৯৭৪</t>
         </is>
       </c>
       <c r="H129" s="5" t="inlineStr">
         <is>
-          <t>চাঁন হরি দাশের বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>গোপাল হরি দাশের বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="3" t="inlineStr">
         <is>
-          <t>০৭৮</t>
+          <t>১০০</t>
         </is>
       </c>
       <c r="B130" s="4" t="inlineStr">
         <is>
-          <t>উত্তম সেন দাশ</t>
+          <t>বিবিসেন দাশ</t>
         </is>
       </c>
       <c r="C130" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭০৫০১</t>
+          <t>১৫২৪০৭৯৭০৫৩৭</t>
         </is>
       </c>
       <c r="D130" s="4" t="inlineStr">
         <is>
-          <t>চাঁন হরী দাশ</t>
+          <t>চাঁন হরি দাশ</t>
         </is>
       </c>
       <c r="E130" s="4" t="inlineStr">
         <is>
-          <t>জানকী বালা দাশ</t>
+          <t>শ্রীমতী দাশ</t>
         </is>
       </c>
       <c r="F130" s="3" t="inlineStr">
@@ -5906,39 +5882,39 @@
       </c>
       <c r="G130" s="3" t="inlineStr">
         <is>
-          <t>০৪/০৫/১৯৫৫</t>
+          <t>০৮/০২/১৯৭৬</t>
         </is>
       </c>
       <c r="H130" s="5" t="inlineStr">
         <is>
-          <t>চাঁন হরী দাশের বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>চাঁন হরি দাশের বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="3" t="inlineStr">
         <is>
-          <t>২০৩</t>
+          <t>০৭৮</t>
         </is>
       </c>
       <c r="B131" s="4" t="inlineStr">
         <is>
-          <t>উপসেন দাশ</t>
+          <t>উত্তম সেন দাশ</t>
         </is>
       </c>
       <c r="C131" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭৭৪৮৯</t>
+          <t>১৫২৪০৭৯৭০৫০১</t>
         </is>
       </c>
       <c r="D131" s="4" t="inlineStr">
         <is>
-          <t>চান হরি দাশ</t>
+          <t>চাঁন হরী দাশ</t>
         </is>
       </c>
       <c r="E131" s="4" t="inlineStr">
         <is>
-          <t>শ্রী মতি বালা দাশ</t>
+          <t>জানকী বালা দাশ</t>
         </is>
       </c>
       <c r="F131" s="3" t="inlineStr">
@@ -5948,39 +5924,39 @@
       </c>
       <c r="G131" s="3" t="inlineStr">
         <is>
-          <t>০৮/০৯/১৯৬১</t>
+          <t>০৪/০৫/১৯৫৫</t>
         </is>
       </c>
       <c r="H131" s="5" t="inlineStr">
         <is>
-          <t>চান হরি দাশের বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>চাঁন হরী দাশের বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="3" t="inlineStr">
         <is>
-          <t>২০০</t>
+          <t>২০৩</t>
         </is>
       </c>
       <c r="B132" s="4" t="inlineStr">
         <is>
-          <t>জহরলাল দাশ</t>
+          <t>উপসেন দাশ</t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭৭৪৮০</t>
+          <t>১৫২৪০৭৯৭৭৪৮৯</t>
         </is>
       </c>
       <c r="D132" s="4" t="inlineStr">
         <is>
-          <t>চিত্র রঞ্জন দাশ</t>
+          <t>চান হরি দাশ</t>
         </is>
       </c>
       <c r="E132" s="4" t="inlineStr">
         <is>
-          <t>সোনা বালা দাশ</t>
+          <t>শ্রী মতি বালা দাশ</t>
         </is>
       </c>
       <c r="F132" s="3" t="inlineStr">
@@ -5990,81 +5966,81 @@
       </c>
       <c r="G132" s="3" t="inlineStr">
         <is>
-          <t>২৯/১২/১৯৭২</t>
+          <t>০৮/০৯/১৯৬১</t>
         </is>
       </c>
       <c r="H132" s="5" t="inlineStr">
         <is>
-          <t>চিত্র রঞ্জন দাশের বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>চান হরি দাশের বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="3" t="inlineStr">
         <is>
-          <t>১৪৩</t>
+          <t>২০০</t>
         </is>
       </c>
       <c r="B133" s="4" t="inlineStr">
         <is>
-          <t>মোঃ ইসমাইল</t>
+          <t>জহরলাল দাশ</t>
         </is>
       </c>
       <c r="C133" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭৭৩১১</t>
+          <t>১৫২৪০৭৯৭৭৪৮০</t>
         </is>
       </c>
       <c r="D133" s="4" t="inlineStr">
         <is>
-          <t>নুরুল্লাহ</t>
+          <t>চিত্র রঞ্জন দাশ</t>
         </is>
       </c>
       <c r="E133" s="4" t="inlineStr">
         <is>
-          <t>মাবিয়া খাতুন</t>
+          <t>সোনা বালা দাশ</t>
         </is>
       </c>
       <c r="F133" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>জেলে</t>
         </is>
       </c>
       <c r="G133" s="3" t="inlineStr">
         <is>
-          <t>২৭/১০/১৯৬৪</t>
+          <t>২৯/১২/১৯৭২</t>
         </is>
       </c>
       <c r="H133" s="5" t="inlineStr">
         <is>
-          <t>ছুফিয়ার বাপের বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>চিত্র রঞ্জন দাশের বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="3" t="inlineStr">
         <is>
-          <t>১৪০</t>
+          <t>১৪৩</t>
         </is>
       </c>
       <c r="B134" s="4" t="inlineStr">
         <is>
-          <t>মোঃ নুরুল ইসলাম</t>
+          <t>মোঃ ইসমাইল</t>
         </is>
       </c>
       <c r="C134" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭০৬৫৯</t>
+          <t>১৫২৪০৭৯৭৭৩১১</t>
         </is>
       </c>
       <c r="D134" s="4" t="inlineStr">
         <is>
-          <t>মোঃ আবদুল হুবুর</t>
+          <t>নুরুল্লাহ</t>
         </is>
       </c>
       <c r="E134" s="4" t="inlineStr">
         <is>
-          <t>আনোয়ারা বেগম</t>
+          <t>মাবিয়া খাতুন</t>
         </is>
       </c>
       <c r="F134" s="3" t="inlineStr">
@@ -6074,34 +6050,34 @@
       </c>
       <c r="G134" s="3" t="inlineStr">
         <is>
-          <t>২৯/০৯/১৯৭৯</t>
+          <t>২৭/১০/১৯৬৪</t>
         </is>
       </c>
       <c r="H134" s="5" t="inlineStr">
         <is>
-          <t>ছুফিয়ার বাপের বাড়ী, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>ছুফিয়ার বাপের বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="3" t="inlineStr">
         <is>
-          <t>১৪১</t>
+          <t>১৪০</t>
         </is>
       </c>
       <c r="B135" s="4" t="inlineStr">
         <is>
-          <t>মোঃ এমদাদুল হক</t>
+          <t>মোঃ নুরুল ইসলাম</t>
         </is>
       </c>
       <c r="C135" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭০৬৫০</t>
+          <t>১৫২৪০৭৯৭০৬৫৯</t>
         </is>
       </c>
       <c r="D135" s="4" t="inlineStr">
         <is>
-          <t>মোহাঃ আবদুল হুবুর</t>
+          <t>মোঃ আবদুল হুবুর</t>
         </is>
       </c>
       <c r="E135" s="4" t="inlineStr">
@@ -6116,7 +6092,7 @@
       </c>
       <c r="G135" s="3" t="inlineStr">
         <is>
-          <t>২৮/০৮/১৯৮৩</t>
+          <t>২৯/০৯/১৯৭৯</t>
         </is>
       </c>
       <c r="H135" s="5" t="inlineStr">
@@ -6128,27 +6104,27 @@
     <row r="136">
       <c r="A136" s="3" t="inlineStr">
         <is>
-          <t>১৮২</t>
+          <t>১৪১</t>
         </is>
       </c>
       <c r="B136" s="4" t="inlineStr">
         <is>
-          <t>বাহাদুর দাশ</t>
+          <t>মোঃ এমদাদুল হক</t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭৭৪২৫</t>
+          <t>১৫২৪০৭৯৭০৬৫০</t>
         </is>
       </c>
       <c r="D136" s="4" t="inlineStr">
         <is>
-          <t>জগবন্ধু দাশ</t>
+          <t>মোহাঃ আবদুল হুবুর</t>
         </is>
       </c>
       <c r="E136" s="4" t="inlineStr">
         <is>
-          <t>বিশাখা রানী দাশ</t>
+          <t>আনোয়ারা বেগম</t>
         </is>
       </c>
       <c r="F136" s="3" t="inlineStr">
@@ -6158,123 +6134,123 @@
       </c>
       <c r="G136" s="3" t="inlineStr">
         <is>
-          <t>১৬/০৩/১৯৬৭</t>
+          <t>২৮/০৮/১৯৮৩</t>
         </is>
       </c>
       <c r="H136" s="5" t="inlineStr">
         <is>
-          <t>জগবন্ধু দাশের বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>ছুফিয়ার বাপের বাড়ী, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="3" t="inlineStr">
         <is>
-          <t>৩৬৫</t>
+          <t>১৮২</t>
         </is>
       </c>
       <c r="B137" s="4" t="inlineStr">
         <is>
-          <t>অন্তর কৈবর্ত্য দাশ</t>
+          <t>বাহাদুর দাশ</t>
         </is>
       </c>
       <c r="C137" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০২৫৩</t>
+          <t>১৫২৪০৭৯৭৭৪২৫</t>
         </is>
       </c>
       <c r="D137" s="4" t="inlineStr">
         <is>
-          <t>বাহদুর দাশ</t>
+          <t>জগবন্ধু দাশ</t>
         </is>
       </c>
       <c r="E137" s="4" t="inlineStr">
         <is>
-          <t>মধু বালা দাশ</t>
+          <t>বিশাখা রানী দাশ</t>
         </is>
       </c>
       <c r="F137" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G137" s="3" t="inlineStr">
         <is>
-          <t>১৫/০২/২০০৮</t>
+          <t>১৬/০৩/১৯৬৭</t>
         </is>
       </c>
       <c r="H137" s="5" t="inlineStr">
         <is>
-          <t>জগবন্ধু দাশের বাড়ী, ১২৯, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>জগবন্ধু দাশের বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="3" t="inlineStr">
         <is>
-          <t>১৯৪</t>
+          <t>৩৬৫</t>
         </is>
       </c>
       <c r="B138" s="4" t="inlineStr">
         <is>
-          <t>সাগর দাশ</t>
+          <t>অন্তর কৈবর্ত্য দাশ</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭৭৪৭৬</t>
+          <t>১৫২৪০৭০০০২৫৩</t>
         </is>
       </c>
       <c r="D138" s="4" t="inlineStr">
         <is>
-          <t>জগৎ দাশ</t>
+          <t>বাহদুর দাশ</t>
         </is>
       </c>
       <c r="E138" s="4" t="inlineStr">
         <is>
-          <t>বিশকা দাশ</t>
+          <t>মধু বালা দাশ</t>
         </is>
       </c>
       <c r="F138" s="3" t="inlineStr">
         <is>
-          <t>জেলে</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G138" s="3" t="inlineStr">
         <is>
-          <t>০১/০৯/১৯৭৭</t>
+          <t>১৫/০২/২০০৮</t>
         </is>
       </c>
       <c r="H138" s="5" t="inlineStr">
         <is>
-          <t>জগৎ বন্ধু দাশের বাড়ি, আমিলাইশ, পঃ আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>জগবন্ধু দাশের বাড়ী, ১২৯, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="3" t="inlineStr">
         <is>
-          <t>০৩৯</t>
+          <t>১৯৪</t>
         </is>
       </c>
       <c r="B139" s="4" t="inlineStr">
         <is>
-          <t>রাধা বাশী দাশ</t>
+          <t>সাগর দাশ</t>
         </is>
       </c>
       <c r="C139" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭০১৯৮</t>
+          <t>১৫২৪০৭৯৭৭৪৭৬</t>
         </is>
       </c>
       <c r="D139" s="4" t="inlineStr">
         <is>
-          <t>জয়কৃষ্ণ দাশ</t>
+          <t>জগৎ দাশ</t>
         </is>
       </c>
       <c r="E139" s="4" t="inlineStr">
         <is>
-          <t>উমতারা দাশ</t>
+          <t>বিশকা দাশ</t>
         </is>
       </c>
       <c r="F139" s="3" t="inlineStr">
@@ -6284,138 +6260,138 @@
       </c>
       <c r="G139" s="3" t="inlineStr">
         <is>
-          <t>০৫/০৮/১৯৪২</t>
+          <t>০১/০৯/১৯৭৭</t>
         </is>
       </c>
       <c r="H139" s="5" t="inlineStr">
         <is>
-          <t>জয়কৃষ্ণ দাশের বাড়ী, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>জগৎ বন্ধু দাশের বাড়ি, আমিলাইশ, পঃ আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="3" t="inlineStr">
         <is>
-          <t>০১৮</t>
+          <t>০৩৯</t>
         </is>
       </c>
       <c r="B140" s="4" t="inlineStr">
         <is>
-          <t>চন্দ্র লাল দাশ</t>
+          <t>রাধা বাশী দাশ</t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭০১৩২</t>
+          <t>১৫২৪০৭৯৭০১৯৮</t>
         </is>
       </c>
       <c r="D140" s="4" t="inlineStr">
         <is>
-          <t>জলধর দাশ</t>
+          <t>জয়কৃষ্ণ দাশ</t>
         </is>
       </c>
       <c r="E140" s="4" t="inlineStr">
         <is>
-          <t>কালন বালা দাশ</t>
+          <t>উমতারা দাশ</t>
         </is>
       </c>
       <c r="F140" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>জেলে</t>
         </is>
       </c>
       <c r="G140" s="3" t="inlineStr">
         <is>
-          <t>০৫/০৯/১৯৭৪</t>
+          <t>০৫/০৮/১৯৪২</t>
         </is>
       </c>
       <c r="H140" s="5" t="inlineStr">
         <is>
-          <t>জলধর দাশের বাড়ী, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>জয়কৃষ্ণ দাশের বাড়ী, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="3" t="inlineStr">
         <is>
-          <t>২২৩</t>
+          <t>০১৮</t>
         </is>
       </c>
       <c r="B141" s="4" t="inlineStr">
         <is>
-          <t>আবু ছেয়দ</t>
+          <t>চন্দ্র লাল দাশ</t>
         </is>
       </c>
       <c r="C141" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০০২৩</t>
+          <t>১৫২৪০৭৯৭০১৩২</t>
         </is>
       </c>
       <c r="D141" s="4" t="inlineStr">
         <is>
-          <t>মোঃ হোসেন</t>
+          <t>জলধর দাশ</t>
         </is>
       </c>
       <c r="E141" s="4" t="inlineStr">
         <is>
-          <t>রশিদা খাতুন</t>
+          <t>কালন বালা দাশ</t>
         </is>
       </c>
       <c r="F141" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G141" s="3" t="inlineStr">
         <is>
-          <t>৩০/০৬/১৯৭৮</t>
+          <t>০৫/০৯/১৯৭৪</t>
         </is>
       </c>
       <c r="H141" s="5" t="inlineStr">
         <is>
-          <t>জলিয়ার বাপের বাড়ী, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>জলধর দাশের বাড়ী, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="3" t="inlineStr">
         <is>
-          <t>২৬১</t>
+          <t>২২৩</t>
         </is>
       </c>
       <c r="B142" s="4" t="inlineStr">
         <is>
-          <t>নারায়ন কান্তি দাশ</t>
+          <t>আবু ছেয়দ</t>
         </is>
       </c>
       <c r="C142" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০০৮৩</t>
+          <t>১৫২৪০৭০০০০২৩</t>
         </is>
       </c>
       <c r="D142" s="4" t="inlineStr">
         <is>
-          <t>বলরাম দাশ</t>
+          <t>মোঃ হোসেন</t>
         </is>
       </c>
       <c r="E142" s="4" t="inlineStr">
         <is>
-          <t>চন্দ্র বালা দাশ</t>
+          <t>রশিদা খাতুন</t>
         </is>
       </c>
       <c r="F142" s="3" t="inlineStr">
         <is>
-          <t>জেলে</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G142" s="3" t="inlineStr">
         <is>
-          <t>১৫/০৩/১৯৯২</t>
+          <t>৩০/০৬/১৯৭৮</t>
         </is>
       </c>
       <c r="H142" s="5" t="inlineStr">
         <is>
-          <t>১১, জেলে পাড়া, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>জলিয়ার বাপের বাড়ী, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -6464,111 +6440,111 @@
     <row r="144">
       <c r="A144" s="3" t="inlineStr">
         <is>
-          <t>২৮১</t>
+          <t>২৬১</t>
         </is>
       </c>
       <c r="B144" s="4" t="inlineStr">
         <is>
-          <t>দেব প্রকাশ দাশ</t>
+          <t>নারায়ন কান্তি দাশ</t>
         </is>
       </c>
       <c r="C144" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০১১১</t>
+          <t>১৫২৪০৭০০০০৮৩</t>
         </is>
       </c>
       <c r="D144" s="4" t="inlineStr">
         <is>
-          <t>হরিদাম দাশ</t>
+          <t>বলরাম দাশ</t>
         </is>
       </c>
       <c r="E144" s="4" t="inlineStr">
         <is>
-          <t>শান্তি বালা দাশ</t>
+          <t>চন্দ্র বালা দাশ</t>
         </is>
       </c>
       <c r="F144" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>জেলে</t>
         </is>
       </c>
       <c r="G144" s="3" t="inlineStr">
         <is>
-          <t>১১/০৯/১৯৯৩</t>
+          <t>১৫/০৩/১৯৯২</t>
         </is>
       </c>
       <c r="H144" s="5" t="inlineStr">
         <is>
-          <t>জেলে পাড়া, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>১১, জেলে পাড়া, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="3" t="inlineStr">
         <is>
-          <t>২৮৬</t>
+          <t>২৮১</t>
         </is>
       </c>
       <c r="B145" s="4" t="inlineStr">
         <is>
-          <t>রুবেল দাশ</t>
+          <t>দেব প্রকাশ দাশ</t>
         </is>
       </c>
       <c r="C145" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০১২৩</t>
+          <t>১৫২৪০৭০০০১১১</t>
         </is>
       </c>
       <c r="D145" s="4" t="inlineStr">
         <is>
-          <t>উপসেন দাশ</t>
+          <t>হরিদাম দাশ</t>
         </is>
       </c>
       <c r="E145" s="4" t="inlineStr">
         <is>
-          <t>রিনি বালা দাশ</t>
+          <t>শান্তি বালা দাশ</t>
         </is>
       </c>
       <c r="F145" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G145" s="3" t="inlineStr">
         <is>
-          <t>০৯/০৯/১৯৯৬</t>
+          <t>১১/০৯/১৯৯৩</t>
         </is>
       </c>
       <c r="H145" s="5" t="inlineStr">
         <is>
-          <t>জেলে পাড়া, পশ্চিম আমিলাইশ, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>জেলে পাড়া, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="3" t="inlineStr">
         <is>
-          <t>২৮৭</t>
+          <t>২৮৬</t>
         </is>
       </c>
       <c r="B146" s="4" t="inlineStr">
         <is>
-          <t>গোপাল দাশ</t>
+          <t>রুবেল দাশ</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০১২৪</t>
+          <t>১৫২৪০৭০০০১২৩</t>
         </is>
       </c>
       <c r="D146" s="4" t="inlineStr">
         <is>
-          <t>গঙ্গা দাশ</t>
+          <t>উপসেন দাশ</t>
         </is>
       </c>
       <c r="E146" s="4" t="inlineStr">
         <is>
-          <t>রীতী দাশ</t>
+          <t>রিনি বালা দাশ</t>
         </is>
       </c>
       <c r="F146" s="3" t="inlineStr">
@@ -6590,37 +6566,37 @@
     <row r="147">
       <c r="A147" s="3" t="inlineStr">
         <is>
-          <t>২৮৮</t>
+          <t>২৮৭</t>
         </is>
       </c>
       <c r="B147" s="4" t="inlineStr">
         <is>
-          <t>পেঠান দাশ</t>
+          <t>গোপাল দাশ</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০১২৫</t>
+          <t>১৫২৪০৭০০০১২৪</t>
         </is>
       </c>
       <c r="D147" s="4" t="inlineStr">
         <is>
-          <t>মোহন হরি দাশ</t>
+          <t>গঙ্গা দাশ</t>
         </is>
       </c>
       <c r="E147" s="4" t="inlineStr">
         <is>
-          <t>রোহিনী বালা দাশ</t>
+          <t>রীতী দাশ</t>
         </is>
       </c>
       <c r="F147" s="3" t="inlineStr">
         <is>
-          <t>জেলে</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G147" s="3" t="inlineStr">
         <is>
-          <t>২২/০৮/১৯৮০</t>
+          <t>০৯/০৯/১৯৯৬</t>
         </is>
       </c>
       <c r="H147" s="5" t="inlineStr">
@@ -6632,153 +6608,153 @@
     <row r="148">
       <c r="A148" s="3" t="inlineStr">
         <is>
-          <t>২৬৮</t>
+          <t>২৮৮</t>
         </is>
       </c>
       <c r="B148" s="4" t="inlineStr">
         <is>
-          <t>মোঃ আইয়ুব</t>
+          <t>পেঠান দাশ</t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০০৯৫</t>
+          <t>১৫২৪০৭০০০১২৫</t>
         </is>
       </c>
       <c r="D148" s="4" t="inlineStr">
         <is>
-          <t>রাহমত উল্লাহ</t>
+          <t>মোহন হরি দাশ</t>
         </is>
       </c>
       <c r="E148" s="4" t="inlineStr">
         <is>
-          <t>ছায়েরা খাতুন</t>
+          <t>রোহিনী বালা দাশ</t>
         </is>
       </c>
       <c r="F148" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>জেলে</t>
         </is>
       </c>
       <c r="G148" s="3" t="inlineStr">
         <is>
-          <t>০৮/১২/১৯৯৭</t>
+          <t>২২/০৮/১৯৮০</t>
         </is>
       </c>
       <c r="H148" s="5" t="inlineStr">
         <is>
-          <t>তালুকদার বাড়ী, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>জেলে পাড়া, পশ্চিম আমিলাইশ, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="3" t="inlineStr">
         <is>
-          <t>২৭৯</t>
+          <t>২৬৮</t>
         </is>
       </c>
       <c r="B149" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ মুছা</t>
+          <t>মোঃ আইয়ুব</t>
         </is>
       </c>
       <c r="C149" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০১০৯</t>
+          <t>১৫২৪০৭০০০০৯৫</t>
         </is>
       </c>
       <c r="D149" s="4" t="inlineStr">
         <is>
-          <t>শফিকুর রহমান</t>
+          <t>রাহমত উল্লাহ</t>
         </is>
       </c>
       <c r="E149" s="4" t="inlineStr">
         <is>
-          <t>আয়িয়া খাতুন</t>
+          <t>ছায়েরা খাতুন</t>
         </is>
       </c>
       <c r="F149" s="3" t="inlineStr">
         <is>
-          <t>প্রবাসী</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G149" s="3" t="inlineStr">
         <is>
-          <t>০৯/০৮/১৯৬৭</t>
+          <t>০৮/১২/১৯৯৭</t>
         </is>
       </c>
       <c r="H149" s="5" t="inlineStr">
         <is>
-          <t>তালুকদারের বাড়ি, পশ্চিম আমিলাইশ, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>তালুকদার বাড়ী, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="3" t="inlineStr">
         <is>
-          <t>১৯১</t>
+          <t>২৭৯</t>
         </is>
       </c>
       <c r="B150" s="4" t="inlineStr">
         <is>
-          <t>সুজিত দাশ</t>
+          <t>মোহাম্মদ মুছা</t>
         </is>
       </c>
       <c r="C150" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭৭৪৬২</t>
+          <t>১৫২৪০৭০০০১০৯</t>
         </is>
       </c>
       <c r="D150" s="4" t="inlineStr">
         <is>
-          <t>দশরত দাশ</t>
+          <t>শফিকুর রহমান</t>
         </is>
       </c>
       <c r="E150" s="4" t="inlineStr">
         <is>
-          <t>মনি দাশ</t>
+          <t>আয়িয়া খাতুন</t>
         </is>
       </c>
       <c r="F150" s="3" t="inlineStr">
         <is>
-          <t>জেলে</t>
+          <t>প্রবাসী</t>
         </is>
       </c>
       <c r="G150" s="3" t="inlineStr">
         <is>
-          <t>০৪/০৬/১৯৭৮</t>
+          <t>০৯/০৮/১৯৬৭</t>
         </is>
       </c>
       <c r="H150" s="5" t="inlineStr">
         <is>
-          <t>দশরত দাশের বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>তালুকদারের বাড়ি, পশ্চিম আমিলাইশ, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="3" t="inlineStr">
         <is>
-          <t>১৮৩</t>
+          <t>১৯১</t>
         </is>
       </c>
       <c r="B151" s="4" t="inlineStr">
         <is>
-          <t>দশরথ দাশ</t>
+          <t>সুজিত দাশ</t>
         </is>
       </c>
       <c r="C151" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭৭৪২৬</t>
+          <t>১৫২৪০৭৯৭৭৪৬২</t>
         </is>
       </c>
       <c r="D151" s="4" t="inlineStr">
         <is>
-          <t>সুবীর দাশ</t>
+          <t>দশরত দাশ</t>
         </is>
       </c>
       <c r="E151" s="4" t="inlineStr">
         <is>
-          <t>বুন্দা বালা দাশ</t>
+          <t>মনি দাশ</t>
         </is>
       </c>
       <c r="F151" s="3" t="inlineStr">
@@ -6788,12 +6764,12 @@
       </c>
       <c r="G151" s="3" t="inlineStr">
         <is>
-          <t>১০/০৭/১৯৬১</t>
+          <t>০৪/০৬/১৯৭৮</t>
         </is>
       </c>
       <c r="H151" s="5" t="inlineStr">
         <is>
-          <t>দশরথ দাশের বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>দশরত দাশের বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -6842,289 +6818,289 @@
     <row r="153">
       <c r="A153" s="3" t="inlineStr">
         <is>
-          <t>২৮৯</t>
+          <t>১৮৩</t>
         </is>
       </c>
       <c r="B153" s="4" t="inlineStr">
         <is>
-          <t>মোঃ ইউনুচ</t>
+          <t>দশরথ দাশ</t>
         </is>
       </c>
       <c r="C153" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০১২৬</t>
+          <t>১৫২৪০৭৯৭৭৪২৬</t>
         </is>
       </c>
       <c r="D153" s="4" t="inlineStr">
         <is>
-          <t>মোঃ রিদুয়ান</t>
+          <t>সুবীর দাশ</t>
         </is>
       </c>
       <c r="E153" s="4" t="inlineStr">
         <is>
-          <t>কুলছুমা খাতুন</t>
+          <t>বুন্দা বালা দাশ</t>
         </is>
       </c>
       <c r="F153" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>জেলে</t>
         </is>
       </c>
       <c r="G153" s="3" t="inlineStr">
         <is>
-          <t>১২/০৮/১৯৯৭</t>
+          <t>১০/০৭/১৯৬১</t>
         </is>
       </c>
       <c r="H153" s="5" t="inlineStr">
         <is>
-          <t>পং আমিলাইশ, আমিলাইশ, পং আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>দশরথ দাশের বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="3" t="inlineStr">
         <is>
-          <t>৩৬১</t>
+          <t>২৮৯</t>
         </is>
       </c>
       <c r="B154" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ ফয়সাল</t>
+          <t>মোঃ ইউনুচ</t>
         </is>
       </c>
       <c r="C154" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০২৫৭</t>
+          <t>১৫২৪০৭০০০১২৬</t>
         </is>
       </c>
       <c r="D154" s="4" t="inlineStr">
         <is>
-          <t>মোঃ আবুল কাশেম</t>
+          <t>মোঃ রিদুয়ান</t>
         </is>
       </c>
       <c r="E154" s="4" t="inlineStr">
         <is>
-          <t>নুরুমাহাব</t>
+          <t>কুলছুমা খাতুন</t>
         </is>
       </c>
       <c r="F154" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G154" s="3" t="inlineStr">
         <is>
-          <t>১০/১০/২০০৬</t>
+          <t>১২/০৮/১৯৯৭</t>
         </is>
       </c>
       <c r="H154" s="5" t="inlineStr">
         <is>
-          <t>৫৪, পং আমিলাইশ, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>পং আমিলাইশ, আমিলাইশ, পং আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="3" t="inlineStr">
         <is>
-          <t>২৭৬</t>
+          <t>৩৬১</t>
         </is>
       </c>
       <c r="B155" s="4" t="inlineStr">
         <is>
-          <t>ঝুন্টু দাশ</t>
+          <t>মুহাম্মদ ফয়সাল</t>
         </is>
       </c>
       <c r="C155" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০১০৫</t>
+          <t>১৫২৪০৭০০০২৫৭</t>
         </is>
       </c>
       <c r="D155" s="4" t="inlineStr">
         <is>
-          <t>কালি কুমার দাশ</t>
+          <t>মোঃ আবুল কাশেম</t>
         </is>
       </c>
       <c r="E155" s="4" t="inlineStr">
         <is>
-          <t>জোংমা দাশ</t>
+          <t>নুরুমাহাব</t>
         </is>
       </c>
       <c r="F155" s="3" t="inlineStr">
         <is>
-          <t>জেলে</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G155" s="3" t="inlineStr">
         <is>
-          <t>১২/০২/১৯৯৭</t>
+          <t>১০/১০/২০০৬</t>
         </is>
       </c>
       <c r="H155" s="5" t="inlineStr">
         <is>
-          <t>পং আমিলাইশ, পশ্চিম আমিলাইশ, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>৫৪, পং আমিলাইশ, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="3" t="inlineStr">
         <is>
-          <t>৩৫৭</t>
+          <t>২৭৬</t>
         </is>
       </c>
       <c r="B156" s="4" t="inlineStr">
         <is>
-          <t>ওবাইদুল ইসলাম</t>
+          <t>ঝুন্টু দাশ</t>
         </is>
       </c>
       <c r="C156" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০২৪৯</t>
+          <t>১৫২৪০৭০০০১০৫</t>
         </is>
       </c>
       <c r="D156" s="4" t="inlineStr">
         <is>
-          <t>মোঃ ইসমাইল</t>
+          <t>কালি কুমার দাশ</t>
         </is>
       </c>
       <c r="E156" s="4" t="inlineStr">
         <is>
-          <t>জুলেখা বেগম</t>
+          <t>জোংমা দাশ</t>
         </is>
       </c>
       <c r="F156" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>জেলে</t>
         </is>
       </c>
       <c r="G156" s="3" t="inlineStr">
         <is>
-          <t>২১/০৩/২০০৫</t>
+          <t>১২/০২/১৯৯৭</t>
         </is>
       </c>
       <c r="H156" s="5" t="inlineStr">
         <is>
-          <t>১২০, পঃ আমিলাইশ, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>পং আমিলাইশ, পশ্চিম আমিলাইশ, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="3" t="inlineStr">
         <is>
-          <t>১৭৯</t>
+          <t>৩৫৭</t>
         </is>
       </c>
       <c r="B157" s="4" t="inlineStr">
         <is>
-          <t>জলধর দাশ</t>
+          <t>ওবাইদুল ইসলাম</t>
         </is>
       </c>
       <c r="C157" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭৭৪০৫</t>
+          <t>১৫২৪০৭০০০২৪৯</t>
         </is>
       </c>
       <c r="D157" s="4" t="inlineStr">
         <is>
-          <t>রামকৃষ্ণ দাশ</t>
+          <t>মোঃ ইসমাইল</t>
         </is>
       </c>
       <c r="E157" s="4" t="inlineStr">
         <is>
-          <t>পদ্ম পতি দাশ</t>
+          <t>জুলেখা বেগম</t>
         </is>
       </c>
       <c r="F157" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G157" s="3" t="inlineStr">
         <is>
-          <t>০২/০৪/১৯৪০</t>
+          <t>২১/০৩/২০০৫</t>
         </is>
       </c>
       <c r="H157" s="5" t="inlineStr">
         <is>
-          <t>পরিমল দাশ বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>১২০, পঃ আমিলাইশ, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="3" t="inlineStr">
         <is>
-          <t>১৮০</t>
+          <t>১৭৯</t>
         </is>
       </c>
       <c r="B158" s="4" t="inlineStr">
         <is>
-          <t>পরিমল দাশ</t>
+          <t>জলধর দাশ</t>
         </is>
       </c>
       <c r="C158" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭৭৪০৯</t>
+          <t>১৫২৪০৭৯৭৭৪০৫</t>
         </is>
       </c>
       <c r="D158" s="4" t="inlineStr">
         <is>
-          <t>শমিনী কুমার দাশ</t>
+          <t>রামকৃষ্ণ দাশ</t>
         </is>
       </c>
       <c r="E158" s="4" t="inlineStr">
         <is>
-          <t>বিনোদীনী দাশ</t>
+          <t>পদ্ম পতি দাশ</t>
         </is>
       </c>
       <c r="F158" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G158" s="3" t="inlineStr">
         <is>
-          <t>১৯/০৪/১৯৫০</t>
+          <t>০২/০৪/১৯৪০</t>
         </is>
       </c>
       <c r="H158" s="5" t="inlineStr">
         <is>
-          <t>পরিমল দাশের বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>পরিমল দাশ বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="3" t="inlineStr">
         <is>
-          <t>১২২</t>
+          <t>১৮০</t>
         </is>
       </c>
       <c r="B159" s="4" t="inlineStr">
         <is>
-          <t>অরুণ কান্তি দাশ</t>
+          <t>পরিমল দাশ</t>
         </is>
       </c>
       <c r="C159" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭০৬৩৯</t>
+          <t>১৫২৪০৭৯৭৭৪০৯</t>
         </is>
       </c>
       <c r="D159" s="4" t="inlineStr">
         <is>
-          <t>পরিমল কান্তি দাশ</t>
+          <t>শমিনী কুমার দাশ</t>
         </is>
       </c>
       <c r="E159" s="4" t="inlineStr">
         <is>
-          <t>সরস্বতী দাশ</t>
+          <t>বিনোদীনী দাশ</t>
         </is>
       </c>
       <c r="F159" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G159" s="3" t="inlineStr">
         <is>
-          <t>০১/০৬/১৯৭৬</t>
+          <t>১৯/০৪/১৯৫০</t>
         </is>
       </c>
       <c r="H159" s="5" t="inlineStr">
@@ -7136,237 +7112,237 @@
     <row r="160">
       <c r="A160" s="3" t="inlineStr">
         <is>
-          <t>২৭৪</t>
+          <t>১২২</t>
         </is>
       </c>
       <c r="B160" s="4" t="inlineStr">
         <is>
-          <t>সিবলু দাশ</t>
+          <t>অরুণ কান্তি দাশ</t>
         </is>
       </c>
       <c r="C160" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০১০৩</t>
+          <t>১৫২৪০৭৯৭০৬৩৯</t>
         </is>
       </c>
       <c r="D160" s="4" t="inlineStr">
         <is>
-          <t>জহর লাল দাশ</t>
+          <t>পরিমল কান্তি দাশ</t>
         </is>
       </c>
       <c r="E160" s="4" t="inlineStr">
         <is>
-          <t>রিনা দাশ</t>
+          <t>সরস্বতী দাশ</t>
         </is>
       </c>
       <c r="F160" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G160" s="3" t="inlineStr">
         <is>
-          <t>১৫/০৬/১৯৯৭</t>
+          <t>০১/০৬/১৯৭৬</t>
         </is>
       </c>
       <c r="H160" s="5" t="inlineStr">
         <is>
-          <t>পর্নচন্দ্র দাশের বাড়ি, পশ্চিম আমিলাইশ, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>পরিমল দাশের বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="3" t="inlineStr">
         <is>
-          <t>৩৪৫</t>
+          <t>২৭৪</t>
         </is>
       </c>
       <c r="B161" s="4" t="inlineStr">
         <is>
-          <t>মোঃ বেলাল উদ্দীন</t>
+          <t>সিবলু দাশ</t>
         </is>
       </c>
       <c r="C161" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০২২৯</t>
+          <t>১৫২৪০৭০০০১০৩</t>
         </is>
       </c>
       <c r="D161" s="4" t="inlineStr">
         <is>
-          <t>ফজল করিম</t>
+          <t>জহর লাল দাশ</t>
         </is>
       </c>
       <c r="E161" s="4" t="inlineStr">
         <is>
-          <t>হাবিবা খাতুন</t>
+          <t>রিনা দাশ</t>
         </is>
       </c>
       <c r="F161" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G161" s="3" t="inlineStr">
         <is>
-          <t>০৮/০৬/১৯৮৪</t>
+          <t>১৫/০৬/১৯৯৭</t>
         </is>
       </c>
       <c r="H161" s="5" t="inlineStr">
         <is>
-          <t>০৯২, পশ্চিম আমিলাইশ, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>পর্নচন্দ্র দাশের বাড়ি, পশ্চিম আমিলাইশ, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="3" t="inlineStr">
         <is>
-          <t>৩৭২</t>
+          <t>২৯৬</t>
         </is>
       </c>
       <c r="B162" s="4" t="inlineStr">
         <is>
-          <t>চিরনজিত দাশ</t>
+          <t>রায়হান উদ্দীন</t>
         </is>
       </c>
       <c r="C162" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০২৭১</t>
+          <t>১৫২৪০৭০০০১৩৮</t>
         </is>
       </c>
       <c r="D162" s="4" t="inlineStr">
         <is>
-          <t>বাবুল দাশ</t>
+          <t>নুরুল আলম</t>
         </is>
       </c>
       <c r="E162" s="4" t="inlineStr">
         <is>
-          <t>শুখলালী দাশ</t>
+          <t>মশহুদা বেগম</t>
         </is>
       </c>
       <c r="F162" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G162" s="3" t="inlineStr">
         <is>
-          <t>০৪/০৩/২০০৭</t>
+          <t>৩১/১২/১৯৯৯</t>
         </is>
       </c>
       <c r="H162" s="5" t="inlineStr">
         <is>
-          <t>-১৫৭, পশ্চিম আমিলাইশ, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>., পশ্চিম আমিলাইশ, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="3" t="inlineStr">
         <is>
-          <t>২৬৩</t>
+          <t>৩৬২</t>
         </is>
       </c>
       <c r="B163" s="4" t="inlineStr">
         <is>
-          <t>ছাবের আহমদ</t>
+          <t>আবিদুল ইসলাম</t>
         </is>
       </c>
       <c r="C163" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০০৮৫</t>
+          <t>১৫২৪০৭০০০২৫৮</t>
         </is>
       </c>
       <c r="D163" s="4" t="inlineStr">
         <is>
-          <t>আলী আহমদ</t>
+          <t>আবুল কাশেম</t>
         </is>
       </c>
       <c r="E163" s="4" t="inlineStr">
         <is>
-          <t>আয়েশা খাতুন</t>
+          <t>মোমেনা খাতুন</t>
         </is>
       </c>
       <c r="F163" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G163" s="3" t="inlineStr">
         <is>
-          <t>০১/১০/১৯৭৪</t>
+          <t>০২/০৮/২০০৬</t>
         </is>
       </c>
       <c r="H163" s="5" t="inlineStr">
         <is>
-          <t>১০৫, পশ্চিম আমিলাইশ, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>০৭১, পশ্চিম আমিলাইশ, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="3" t="inlineStr">
         <is>
-          <t>৩৪৩</t>
+          <t>২৬২</t>
         </is>
       </c>
       <c r="B164" s="4" t="inlineStr">
         <is>
-          <t>মোঃ শাহেদুল ইসলাম</t>
+          <t>সুপন দাশ</t>
         </is>
       </c>
       <c r="C164" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০২২৭</t>
+          <t>১৫২৪০৭০০০০৮৪</t>
         </is>
       </c>
       <c r="D164" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল মাব্দু</t>
+          <t>সুনীল দাশ</t>
         </is>
       </c>
       <c r="E164" s="4" t="inlineStr">
         <is>
-          <t>মমতাজ বেগম</t>
+          <t>সবিতা দাশ</t>
         </is>
       </c>
       <c r="F164" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G164" s="3" t="inlineStr">
         <is>
-          <t>১৫/১১/১৯৯৮</t>
+          <t>২০/০৩/১৯৯২</t>
         </is>
       </c>
       <c r="H164" s="5" t="inlineStr">
         <is>
-          <t>১৪৭, পশ্চিম আমিলাইশ, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>৫৯, পশ্চিম আমিলাইশ, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="3" t="inlineStr">
         <is>
-          <t>৩৬২</t>
+          <t>২৫৭</t>
         </is>
       </c>
       <c r="B165" s="4" t="inlineStr">
         <is>
-          <t>আবিদুল ইসলাম</t>
+          <t>নিউটন দাশ</t>
         </is>
       </c>
       <c r="C165" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০২৫৮</t>
+          <t>১৫২৪০৭০০০০৭৯</t>
         </is>
       </c>
       <c r="D165" s="4" t="inlineStr">
         <is>
-          <t>আবুল কাশেম</t>
+          <t>প্রফুল্ল রঞ্জন দাশ</t>
         </is>
       </c>
       <c r="E165" s="4" t="inlineStr">
         <is>
-          <t>মোমেনা খাতুন</t>
+          <t>শ্রীমতি দাশ</t>
         </is>
       </c>
       <c r="F165" s="3" t="inlineStr">
@@ -7376,39 +7352,39 @@
       </c>
       <c r="G165" s="3" t="inlineStr">
         <is>
-          <t>০২/০৮/২০০৬</t>
+          <t>১৬/০৩/১৯৯৫</t>
         </is>
       </c>
       <c r="H165" s="5" t="inlineStr">
         <is>
-          <t>০৭১, পশ্চিম আমিলাইশ, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>৭৬, পশ্চিম আমিলাইশ, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="3" t="inlineStr">
         <is>
-          <t>৩৪০</t>
+          <t>৩৫৫</t>
         </is>
       </c>
       <c r="B166" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ইয়াছিন হাসান মিরাজ</t>
+          <t>মোহাম্মদ আজিজুল ইসলাম</t>
         </is>
       </c>
       <c r="C166" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০২১৭</t>
+          <t>১৫২৪০৭০০০২৪৬</t>
         </is>
       </c>
       <c r="D166" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ হানিফ</t>
+          <t>মৃত মোঃ আলী</t>
         </is>
       </c>
       <c r="E166" s="4" t="inlineStr">
         <is>
-          <t>রোশন আক্তার</t>
+          <t>শামসুমাহর</t>
         </is>
       </c>
       <c r="F166" s="3" t="inlineStr">
@@ -7418,39 +7394,39 @@
       </c>
       <c r="G166" s="3" t="inlineStr">
         <is>
-          <t>১৭/০৭/২০০২</t>
+          <t>১৭/০৮/২০০৫</t>
         </is>
       </c>
       <c r="H166" s="5" t="inlineStr">
         <is>
-          <t>১৬০, পশ্চিম আমিলাইশ, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>১১৮, পশ্চিম আমিলাইশ, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="3" t="inlineStr">
         <is>
-          <t>২৯৬</t>
+          <t>৩৪০</t>
         </is>
       </c>
       <c r="B167" s="4" t="inlineStr">
         <is>
-          <t>রায়হান উদ্দীন</t>
+          <t>মোহাম্মদ ইয়াছিন হাসান মিরাজ</t>
         </is>
       </c>
       <c r="C167" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০১৩৮</t>
+          <t>১৫২৪০৭০০০২১৭</t>
         </is>
       </c>
       <c r="D167" s="4" t="inlineStr">
         <is>
-          <t>নুরুল আলম</t>
+          <t>মোহাম্মদ হানিফ</t>
         </is>
       </c>
       <c r="E167" s="4" t="inlineStr">
         <is>
-          <t>মশহুদা বেগম</t>
+          <t>রোশন আক্তার</t>
         </is>
       </c>
       <c r="F167" s="3" t="inlineStr">
@@ -7460,81 +7436,81 @@
       </c>
       <c r="G167" s="3" t="inlineStr">
         <is>
-          <t>৩১/১২/১৯৯৯</t>
+          <t>১৭/০৭/২০০২</t>
         </is>
       </c>
       <c r="H167" s="5" t="inlineStr">
         <is>
-          <t>., পশ্চিম আমিলাইশ, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>১৬০, পশ্চিম আমিলাইশ, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="3" t="inlineStr">
         <is>
-          <t>৩৫৫</t>
+          <t>৩৭২</t>
         </is>
       </c>
       <c r="B168" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আজিজুল ইসলাম</t>
+          <t>চিরনজিত দাশ</t>
         </is>
       </c>
       <c r="C168" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০২৪৬</t>
+          <t>১৫২৪০৭০০০২৭১</t>
         </is>
       </c>
       <c r="D168" s="4" t="inlineStr">
         <is>
-          <t>মৃত মোঃ আলী</t>
+          <t>বাবুল দাশ</t>
         </is>
       </c>
       <c r="E168" s="4" t="inlineStr">
         <is>
-          <t>শামসুমাহর</t>
+          <t>শুখলালী দাশ</t>
         </is>
       </c>
       <c r="F168" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G168" s="3" t="inlineStr">
         <is>
-          <t>১৭/০৮/২০০৫</t>
+          <t>০৪/০৩/২০০৭</t>
         </is>
       </c>
       <c r="H168" s="5" t="inlineStr">
         <is>
-          <t>১১৮, পশ্চিম আমিলাইশ, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>-১৫৭, পশ্চিম আমিলাইশ, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="3" t="inlineStr">
         <is>
-          <t>২৫৭</t>
+          <t>৩৪৩</t>
         </is>
       </c>
       <c r="B169" s="4" t="inlineStr">
         <is>
-          <t>নিউটন দাশ</t>
+          <t>মোঃ শাহেদুল ইসলাম</t>
         </is>
       </c>
       <c r="C169" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০০৭৯</t>
+          <t>১৫২৪০৭০০০২২৭</t>
         </is>
       </c>
       <c r="D169" s="4" t="inlineStr">
         <is>
-          <t>প্রফুল্ল রঞ্জন দাশ</t>
+          <t>আব্দুল মাব্দু</t>
         </is>
       </c>
       <c r="E169" s="4" t="inlineStr">
         <is>
-          <t>শ্রীমতি দাশ</t>
+          <t>মমতাজ বেগম</t>
         </is>
       </c>
       <c r="F169" s="3" t="inlineStr">
@@ -7544,39 +7520,39 @@
       </c>
       <c r="G169" s="3" t="inlineStr">
         <is>
-          <t>১৬/০৩/১৯৯৫</t>
+          <t>১৫/১১/১৯৯৮</t>
         </is>
       </c>
       <c r="H169" s="5" t="inlineStr">
         <is>
-          <t>৭৬, পশ্চিম আমিলাইশ, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>১৪৭, পশ্চিম আমিলাইশ, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="3" t="inlineStr">
         <is>
-          <t>২৬২</t>
+          <t>২৬৩</t>
         </is>
       </c>
       <c r="B170" s="4" t="inlineStr">
         <is>
-          <t>সুপন দাশ</t>
+          <t>ছাবের আহমদ</t>
         </is>
       </c>
       <c r="C170" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০০৮৪</t>
+          <t>১৫২৪০৭০০০০৮৫</t>
         </is>
       </c>
       <c r="D170" s="4" t="inlineStr">
         <is>
-          <t>সুনীল দাশ</t>
+          <t>আলী আহমদ</t>
         </is>
       </c>
       <c r="E170" s="4" t="inlineStr">
         <is>
-          <t>সবিতা দাশ</t>
+          <t>আয়েশা খাতুন</t>
         </is>
       </c>
       <c r="F170" s="3" t="inlineStr">
@@ -7586,39 +7562,39 @@
       </c>
       <c r="G170" s="3" t="inlineStr">
         <is>
-          <t>২০/০৩/১৯৯২</t>
+          <t>০১/১০/১৯৭৪</t>
         </is>
       </c>
       <c r="H170" s="5" t="inlineStr">
         <is>
-          <t>৫৯, পশ্চিম আমিলাইশ, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>১০৫, পশ্চিম আমিলাইশ, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="3" t="inlineStr">
         <is>
-          <t>২৫৯</t>
+          <t>৩৪৫</t>
         </is>
       </c>
       <c r="B171" s="4" t="inlineStr">
         <is>
-          <t>নেপাল দাশ</t>
+          <t>মোঃ বেলাল উদ্দীন</t>
         </is>
       </c>
       <c r="C171" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০০৮১</t>
+          <t>১৫২৪০৭০০০২২৯</t>
         </is>
       </c>
       <c r="D171" s="4" t="inlineStr">
         <is>
-          <t>গঙ্গা দাশ</t>
+          <t>ফজল করিম</t>
         </is>
       </c>
       <c r="E171" s="4" t="inlineStr">
         <is>
-          <t>রীতী দাশ</t>
+          <t>হাবিবা খাতুন</t>
         </is>
       </c>
       <c r="F171" s="3" t="inlineStr">
@@ -7628,54 +7604,54 @@
       </c>
       <c r="G171" s="3" t="inlineStr">
         <is>
-          <t>০২/০৬/১৯৯১</t>
+          <t>০৮/০৬/১৯৮৪</t>
         </is>
       </c>
       <c r="H171" s="5" t="inlineStr">
         <is>
-          <t>৩৬, পশ্চিম আমিলাইশ, গঙ্গা দাশের বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>০৯২, পশ্চিম আমিলাইশ, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="3" t="inlineStr">
         <is>
-          <t>৩৭৬</t>
+          <t>২৫৯</t>
         </is>
       </c>
       <c r="B172" s="4" t="inlineStr">
         <is>
-          <t>মিনহাজ উদ্দীন</t>
+          <t>নেপাল দাশ</t>
         </is>
       </c>
       <c r="C172" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭০০০২৮৩</t>
+          <t>১৫২৪০৭০০০০৮১</t>
         </is>
       </c>
       <c r="D172" s="4" t="inlineStr">
         <is>
-          <t>আহামদ হোছাইন</t>
+          <t>গঙ্গা দাশ</t>
         </is>
       </c>
       <c r="E172" s="4" t="inlineStr">
         <is>
-          <t>ছেনুয়ারা বেগম</t>
+          <t>রীতী দাশ</t>
         </is>
       </c>
       <c r="F172" s="3" t="inlineStr">
         <is>
-          <t>প্রবাসী</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G172" s="3" t="inlineStr">
         <is>
-          <t>১২/১২/১৯৯২</t>
+          <t>০২/০৬/১৯৯১</t>
         </is>
       </c>
       <c r="H172" s="5" t="inlineStr">
         <is>
-          <t>৩৩৩, পশ্চিম আমিলাইষ, আমিলাইস, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>৩৬, পশ্চিম আমিলাইশ, গঙ্গা দাশের বাড়ি, আমিলাইশ, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -8438,37 +8414,37 @@
     <row r="191">
       <c r="A191" s="3" t="inlineStr">
         <is>
-          <t>০৭৬</t>
+          <t>০৫৬</t>
         </is>
       </c>
       <c r="B191" s="4" t="inlineStr">
         <is>
-          <t>হারুন রশিদ</t>
+          <t>আব্দুর রহমান</t>
         </is>
       </c>
       <c r="C191" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭০৪৩৬</t>
+          <t>১৫২৪০৭৯৭০২৫০</t>
         </is>
       </c>
       <c r="D191" s="4" t="inlineStr">
         <is>
-          <t>মাহমুদুল হক</t>
+          <t>নুর বকসু</t>
         </is>
       </c>
       <c r="E191" s="4" t="inlineStr">
         <is>
-          <t>রাহিমা খাতুন</t>
+          <t>করিমুল্লোহা</t>
         </is>
       </c>
       <c r="F191" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G191" s="3" t="inlineStr">
         <is>
-          <t>১০/০৮/১৯৮৩</t>
+          <t>০২/১১/১৯৫৭</t>
         </is>
       </c>
       <c r="H191" s="5" t="inlineStr">
@@ -8480,37 +8456,37 @@
     <row r="192">
       <c r="A192" s="3" t="inlineStr">
         <is>
-          <t>০৫৬</t>
+          <t>০৭৬</t>
         </is>
       </c>
       <c r="B192" s="4" t="inlineStr">
         <is>
-          <t>আব্দুর রহমান</t>
+          <t>হারুন রশিদ</t>
         </is>
       </c>
       <c r="C192" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭০২৫০</t>
+          <t>১৫২৪০৭৯৭০৪৩৬</t>
         </is>
       </c>
       <c r="D192" s="4" t="inlineStr">
         <is>
-          <t>নুর বকসু</t>
+          <t>মাহমুদুল হক</t>
         </is>
       </c>
       <c r="E192" s="4" t="inlineStr">
         <is>
-          <t>করিমুল্লোহা</t>
+          <t>রাহিমা খাতুন</t>
         </is>
       </c>
       <c r="F192" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G192" s="3" t="inlineStr">
         <is>
-          <t>০২/১১/১৯৫৭</t>
+          <t>১০/০৮/১৯৮৩</t>
         </is>
       </c>
       <c r="H192" s="5" t="inlineStr">
@@ -8564,37 +8540,37 @@
     <row r="194">
       <c r="A194" s="3" t="inlineStr">
         <is>
-          <t>০২৩</t>
+          <t>০২০</t>
         </is>
       </c>
       <c r="B194" s="4" t="inlineStr">
         <is>
-          <t>সজল দাশ</t>
+          <t>বাদল দাশ</t>
         </is>
       </c>
       <c r="C194" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭০১৩৮</t>
+          <t>১৫২৪০৭৯৭০১৩৪</t>
         </is>
       </c>
       <c r="D194" s="4" t="inlineStr">
         <is>
-          <t>বাদল দাশ</t>
+          <t>হিরেন্দ্র লাল দাশ</t>
         </is>
       </c>
       <c r="E194" s="4" t="inlineStr">
         <is>
-          <t>যশোদা দাশ</t>
+          <t>বিনদ বালা</t>
         </is>
       </c>
       <c r="F194" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>অন্যান্য</t>
         </is>
       </c>
       <c r="G194" s="3" t="inlineStr">
         <is>
-          <t>১৮/০৮/১৯৮০</t>
+          <t>২৫/০৮/১৯৫৭</t>
         </is>
       </c>
       <c r="H194" s="5" t="inlineStr">
@@ -8606,37 +8582,37 @@
     <row r="195">
       <c r="A195" s="3" t="inlineStr">
         <is>
-          <t>০২০</t>
+          <t>০২৩</t>
         </is>
       </c>
       <c r="B195" s="4" t="inlineStr">
         <is>
+          <t>সজল দাশ</t>
+        </is>
+      </c>
+      <c r="C195" s="3" t="inlineStr">
+        <is>
+          <t>১৫২৪০৭৯৭০১৩৮</t>
+        </is>
+      </c>
+      <c r="D195" s="4" t="inlineStr">
+        <is>
           <t>বাদল দাশ</t>
         </is>
       </c>
-      <c r="C195" s="3" t="inlineStr">
-        <is>
-          <t>১৫২৪০৭৯৭০১৩৪</t>
-        </is>
-      </c>
-      <c r="D195" s="4" t="inlineStr">
-        <is>
-          <t>হিরেন্দ্র লাল দাশ</t>
-        </is>
-      </c>
       <c r="E195" s="4" t="inlineStr">
         <is>
-          <t>বিনদ বালা</t>
+          <t>যশোদা দাশ</t>
         </is>
       </c>
       <c r="F195" s="3" t="inlineStr">
         <is>
-          <t>অন্যান্য</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G195" s="3" t="inlineStr">
         <is>
-          <t>২৫/০৮/১৯৫৭</t>
+          <t>১৮/০৮/১৯৮০</t>
         </is>
       </c>
       <c r="H195" s="5" t="inlineStr">
@@ -8816,17 +8792,17 @@
     <row r="200">
       <c r="A200" s="3" t="inlineStr">
         <is>
-          <t>১৩১</t>
+          <t>১৩৩</t>
         </is>
       </c>
       <c r="B200" s="4" t="inlineStr">
         <is>
-          <t>শ্রীধান দাশ</t>
+          <t>হরিকমল দাশ</t>
         </is>
       </c>
       <c r="C200" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭০৬৫০</t>
+          <t>১৫২৪০৭৯৭০৬৫২</t>
         </is>
       </c>
       <c r="D200" s="4" t="inlineStr">
@@ -8836,7 +8812,7 @@
       </c>
       <c r="E200" s="4" t="inlineStr">
         <is>
-          <t>প্রেমধনী দাশ</t>
+          <t>কুমী বালা দাশ</t>
         </is>
       </c>
       <c r="F200" s="3" t="inlineStr">
@@ -8846,7 +8822,7 @@
       </c>
       <c r="G200" s="3" t="inlineStr">
         <is>
-          <t>১০/০৮/১৯৭৭</t>
+          <t>০৩/০৪/১৯৮৫</t>
         </is>
       </c>
       <c r="H200" s="5" t="inlineStr">
@@ -8858,17 +8834,17 @@
     <row r="201">
       <c r="A201" s="3" t="inlineStr">
         <is>
-          <t>১৩৩</t>
+          <t>১৩১</t>
         </is>
       </c>
       <c r="B201" s="4" t="inlineStr">
         <is>
-          <t>হরিকমল দাশ</t>
+          <t>শ্রীধান দাশ</t>
         </is>
       </c>
       <c r="C201" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭০৬৫২</t>
+          <t>১৫২৪০৭৯৭০৬৫০</t>
         </is>
       </c>
       <c r="D201" s="4" t="inlineStr">
@@ -8878,7 +8854,7 @@
       </c>
       <c r="E201" s="4" t="inlineStr">
         <is>
-          <t>কুমী বালা দাশ</t>
+          <t>প্রেমধনী দাশ</t>
         </is>
       </c>
       <c r="F201" s="3" t="inlineStr">
@@ -8888,7 +8864,7 @@
       </c>
       <c r="G201" s="3" t="inlineStr">
         <is>
-          <t>০৩/০৪/১৯৮৫</t>
+          <t>১০/০৮/১৯৭৭</t>
         </is>
       </c>
       <c r="H201" s="5" t="inlineStr">
@@ -8984,17 +8960,17 @@
     <row r="204">
       <c r="A204" s="3" t="inlineStr">
         <is>
-          <t>১০১</t>
+          <t>১০২</t>
         </is>
       </c>
       <c r="B204" s="4" t="inlineStr">
         <is>
-          <t>সুরঞ্জিত দাশ</t>
+          <t>রনজিত দাশ</t>
         </is>
       </c>
       <c r="C204" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭০৫৩৮</t>
+          <t>১৫২৪০৭৯৭০৫৪১</t>
         </is>
       </c>
       <c r="D204" s="4" t="inlineStr">
@@ -9014,7 +8990,7 @@
       </c>
       <c r="G204" s="3" t="inlineStr">
         <is>
-          <t>০৩/০৫/১৯৭৮</t>
+          <t>০৫/০৭/১৯৮০</t>
         </is>
       </c>
       <c r="H204" s="5" t="inlineStr">
@@ -9026,17 +9002,17 @@
     <row r="205">
       <c r="A205" s="3" t="inlineStr">
         <is>
-          <t>১০২</t>
+          <t>১০৩</t>
         </is>
       </c>
       <c r="B205" s="4" t="inlineStr">
         <is>
-          <t>রনজিত দাশ</t>
+          <t>সুজিত দাশ</t>
         </is>
       </c>
       <c r="C205" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭০৫৪১</t>
+          <t>১৫২৪০৭৯৭০৫৪২</t>
         </is>
       </c>
       <c r="D205" s="4" t="inlineStr">
@@ -9056,7 +9032,7 @@
       </c>
       <c r="G205" s="3" t="inlineStr">
         <is>
-          <t>০৫/০৭/১৯৮০</t>
+          <t>০৫/০২/১৯৮৭</t>
         </is>
       </c>
       <c r="H205" s="5" t="inlineStr">
@@ -9068,17 +9044,17 @@
     <row r="206">
       <c r="A206" s="3" t="inlineStr">
         <is>
-          <t>১০৩</t>
+          <t>১০১</t>
         </is>
       </c>
       <c r="B206" s="4" t="inlineStr">
         <is>
-          <t>সুজিত দাশ</t>
+          <t>সুরঞ্জিত দাশ</t>
         </is>
       </c>
       <c r="C206" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৭৯৭০৫৪২</t>
+          <t>১৫২৪০৭৯৭০৫৩৮</t>
         </is>
       </c>
       <c r="D206" s="4" t="inlineStr">
@@ -9098,7 +9074,7 @@
       </c>
       <c r="G206" s="3" t="inlineStr">
         <is>
-          <t>০৫/০২/১৯৮৭</t>
+          <t>০৩/০৫/১৯৭৮</t>
         </is>
       </c>
       <c r="H206" s="5" t="inlineStr">
